--- a/Literature Survey.xlsx
+++ b/Literature Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddbd6e683667f873/Documents/GitHub/FinalYearProject---BP-from-ECG-PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="668" documentId="8_{06F99736-31DA-49E8-9505-754BB59202F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CF5A5C-F65C-4999-85F6-3E0E891FC648}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="8_{06F99736-31DA-49E8-9505-754BB59202F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65AED3D4-B2F5-4D4C-9021-E07AA482226F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{06451764-CDC8-4287-8B2A-BBFCBF9ADF2C}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Final ML" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2577,15 +2576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2602,6 +2592,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2631,6 +2639,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2638,24 +2655,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7025,7 +7024,7 @@
       <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -7051,7 +7050,7 @@
         <v>44</v>
       </c>
       <c r="K13" s="43"/>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="49" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="43" t="s">
@@ -7066,7 +7065,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="44"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="44"/>
       <c r="D14" s="3"/>
       <c r="E14" s="10"/>
@@ -7076,14 +7075,14 @@
       <c r="I14" s="3"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="44"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="24">
       <c r="A15" s="44"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="44"/>
       <c r="D15" s="10" t="s">
         <v>34</v>
@@ -7101,7 +7100,7 @@
       </c>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
-      <c r="L15" s="53"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="44"/>
       <c r="N15" s="3" t="s">
         <v>48</v>
@@ -7112,7 +7111,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="44"/>
-      <c r="B16" s="53"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="12"/>
@@ -7122,14 +7121,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="53"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="44"/>
       <c r="N16" s="4"/>
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="48">
       <c r="A17" s="44"/>
-      <c r="B17" s="53"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="11" t="s">
@@ -7141,7 +7140,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="53"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="44"/>
       <c r="N17" s="4"/>
       <c r="O17" s="10" t="s">
@@ -7150,7 +7149,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="44"/>
-      <c r="B18" s="53"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="12"/>
@@ -7160,14 +7159,14 @@
       <c r="I18" s="4"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="53"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="44"/>
       <c r="N18" s="4"/>
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="36.6" thickBot="1">
       <c r="A19" s="45"/>
-      <c r="B19" s="54"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="45"/>
       <c r="D19" s="5"/>
       <c r="E19" s="13" t="s">
@@ -7179,7 +7178,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
-      <c r="L19" s="54"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="45"/>
       <c r="N19" s="5"/>
       <c r="O19" s="14" t="s">
@@ -7190,13 +7189,13 @@
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="46" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="43" t="s">
@@ -7223,11 +7222,11 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
-      <c r="F21" s="50"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="3"/>
@@ -7242,11 +7241,11 @@
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
-      <c r="F22" s="50"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="3" t="s">
@@ -7267,11 +7266,11 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="3"/>
@@ -7284,11 +7283,11 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="4"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="7" t="s">
@@ -7303,11 +7302,11 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="4"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
-      <c r="F25" s="50"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="4"/>
@@ -7320,11 +7319,11 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="4"/>
@@ -7337,11 +7336,11 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
-      <c r="F27" s="50"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="4"/>
@@ -7354,11 +7353,11 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
-      <c r="F28" s="50"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="4"/>
@@ -7371,11 +7370,11 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="4"/>
@@ -7388,11 +7387,11 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4"/>
-      <c r="B30" s="50"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
-      <c r="F30" s="50"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="4"/>
@@ -7405,11 +7404,11 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4"/>
-      <c r="B31" s="50"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="4"/>
@@ -7422,11 +7421,11 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4"/>
-      <c r="B32" s="50"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="4"/>
@@ -7439,11 +7438,11 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="4"/>
@@ -7456,11 +7455,11 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="4"/>
-      <c r="B34" s="50"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="4"/>
@@ -7473,11 +7472,11 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="4"/>
-      <c r="B35" s="50"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
-      <c r="F35" s="50"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="4"/>
@@ -7490,11 +7489,11 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="4"/>
-      <c r="B36" s="50"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
-      <c r="F36" s="50"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="4"/>
@@ -7507,11 +7506,11 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="4"/>
-      <c r="B37" s="50"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
       <c r="I37" s="4"/>
@@ -7524,11 +7523,11 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
-      <c r="F38" s="50"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="4"/>
@@ -7541,11 +7540,11 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="4"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
-      <c r="F39" s="50"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="4"/>
@@ -7558,11 +7557,11 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="4"/>
-      <c r="B40" s="50"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="4"/>
@@ -7575,11 +7574,11 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4"/>
-      <c r="B41" s="50"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
-      <c r="F41" s="50"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
       <c r="I41" s="4"/>
@@ -7592,11 +7591,11 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4"/>
-      <c r="B42" s="50"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
-      <c r="F42" s="50"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
       <c r="I42" s="4"/>
@@ -7609,11 +7608,11 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4"/>
-      <c r="B43" s="50"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
-      <c r="F43" s="50"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
       <c r="I43" s="4"/>
@@ -7626,11 +7625,11 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4"/>
-      <c r="B44" s="50"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
-      <c r="F44" s="50"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="4"/>
@@ -7643,11 +7642,11 @@
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="51"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="51"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
       <c r="I45" s="5"/>
@@ -7662,7 +7661,7 @@
       <c r="A46" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="67" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="43"/>
@@ -7685,7 +7684,7 @@
       <c r="L46" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="M46" s="46" t="s">
+      <c r="M46" s="67" t="s">
         <v>76</v>
       </c>
       <c r="N46" s="43"/>
@@ -7693,7 +7692,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="44"/>
-      <c r="B47" s="47"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="44"/>
       <c r="D47" s="3"/>
       <c r="E47" s="44"/>
@@ -7704,13 +7703,13 @@
       <c r="J47" s="44"/>
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
-      <c r="M47" s="47"/>
+      <c r="M47" s="68"/>
       <c r="N47" s="44"/>
       <c r="O47" s="44"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="44"/>
-      <c r="B48" s="47"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="44"/>
       <c r="D48" s="3"/>
       <c r="E48" s="44"/>
@@ -7723,13 +7722,13 @@
       <c r="J48" s="44"/>
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
-      <c r="M48" s="47"/>
+      <c r="M48" s="68"/>
       <c r="N48" s="44"/>
       <c r="O48" s="44"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="44"/>
-      <c r="B49" s="47"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="44"/>
       <c r="D49" s="3"/>
       <c r="E49" s="44"/>
@@ -7742,13 +7741,13 @@
       <c r="J49" s="44"/>
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
-      <c r="M49" s="47"/>
+      <c r="M49" s="68"/>
       <c r="N49" s="44"/>
       <c r="O49" s="44"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="44"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="44"/>
       <c r="D50" s="4"/>
       <c r="E50" s="44"/>
@@ -7759,13 +7758,13 @@
       <c r="J50" s="44"/>
       <c r="K50" s="44"/>
       <c r="L50" s="44"/>
-      <c r="M50" s="47"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="44"/>
       <c r="O50" s="44"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="44"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="44"/>
       <c r="D51" s="3"/>
       <c r="E51" s="44"/>
@@ -7778,13 +7777,13 @@
       <c r="J51" s="44"/>
       <c r="K51" s="44"/>
       <c r="L51" s="44"/>
-      <c r="M51" s="47"/>
+      <c r="M51" s="68"/>
       <c r="N51" s="44"/>
       <c r="O51" s="44"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="44"/>
-      <c r="B52" s="47"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="44"/>
       <c r="D52" s="3"/>
       <c r="E52" s="44"/>
@@ -7795,13 +7794,13 @@
       <c r="J52" s="44"/>
       <c r="K52" s="44"/>
       <c r="L52" s="44"/>
-      <c r="M52" s="47"/>
+      <c r="M52" s="68"/>
       <c r="N52" s="44"/>
       <c r="O52" s="44"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="44"/>
-      <c r="B53" s="47"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="44"/>
       <c r="D53" s="3"/>
       <c r="E53" s="44"/>
@@ -7812,13 +7811,13 @@
       <c r="J53" s="44"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
-      <c r="M53" s="47"/>
+      <c r="M53" s="68"/>
       <c r="N53" s="44"/>
       <c r="O53" s="44"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="44"/>
-      <c r="B54" s="47"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="44"/>
       <c r="D54" s="3"/>
       <c r="E54" s="44"/>
@@ -7829,13 +7828,13 @@
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
-      <c r="M54" s="47"/>
+      <c r="M54" s="68"/>
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="44"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="44"/>
       <c r="D55" s="3"/>
       <c r="E55" s="44"/>
@@ -7846,13 +7845,13 @@
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
-      <c r="M55" s="47"/>
+      <c r="M55" s="68"/>
       <c r="N55" s="44"/>
       <c r="O55" s="44"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="44"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="44"/>
       <c r="D56" s="4"/>
       <c r="E56" s="44"/>
@@ -7863,13 +7862,13 @@
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
-      <c r="M56" s="47"/>
+      <c r="M56" s="68"/>
       <c r="N56" s="44"/>
       <c r="O56" s="44"/>
     </row>
     <row r="57" spans="1:15" ht="25.8" thickBot="1">
       <c r="A57" s="45"/>
-      <c r="B57" s="48"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="45"/>
       <c r="D57" s="15" t="s">
         <v>69</v>
@@ -7882,7 +7881,7 @@
       <c r="J57" s="45"/>
       <c r="K57" s="45"/>
       <c r="L57" s="45"/>
-      <c r="M57" s="48"/>
+      <c r="M57" s="69"/>
       <c r="N57" s="45"/>
       <c r="O57" s="45"/>
     </row>
@@ -7904,13 +7903,13 @@
       <c r="G58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H58" s="52" t="s">
+      <c r="H58" s="49" t="s">
         <v>86</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="52" t="s">
+      <c r="J58" s="49" t="s">
         <v>89</v>
       </c>
       <c r="K58" s="16" t="s">
@@ -7935,9 +7934,9 @@
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="53"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="53"/>
+      <c r="J59" s="50"/>
       <c r="K59" s="17"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -7956,11 +7955,11 @@
       <c r="G60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H60" s="53"/>
+      <c r="H60" s="50"/>
       <c r="I60" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="53"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="10" t="s">
         <v>91</v>
       </c>
@@ -7983,9 +7982,9 @@
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="53"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="53"/>
+      <c r="J61" s="50"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -8004,11 +8003,11 @@
       <c r="G62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="53"/>
+      <c r="H62" s="50"/>
       <c r="I62" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J62" s="53"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="10" t="s">
         <v>92</v>
       </c>
@@ -8029,9 +8028,9 @@
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="53"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="53"/>
+      <c r="J63" s="50"/>
       <c r="K63" s="10"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -8046,9 +8045,9 @@
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="53"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="53"/>
+      <c r="J64" s="50"/>
       <c r="K64" s="10"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -8065,9 +8064,9 @@
       <c r="E65" s="44"/>
       <c r="F65" s="44"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="53"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="53"/>
+      <c r="J65" s="50"/>
       <c r="K65" s="10" t="s">
         <v>27</v>
       </c>
@@ -8084,9 +8083,9 @@
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="53"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="53"/>
+      <c r="J66" s="50"/>
       <c r="K66" s="10"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -8101,9 +8100,9 @@
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="53"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="53"/>
+      <c r="J67" s="50"/>
       <c r="K67" s="18" t="s">
         <v>93</v>
       </c>
@@ -8120,9 +8119,9 @@
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="53"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="53"/>
+      <c r="J68" s="50"/>
       <c r="K68" s="17"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -8137,9 +8136,9 @@
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="53"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="53"/>
+      <c r="J69" s="50"/>
       <c r="K69" s="10" t="s">
         <v>94</v>
       </c>
@@ -8156,9 +8155,9 @@
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="54"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="54"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="14"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -8175,7 +8174,7 @@
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
-      <c r="F71" s="64" t="s">
+      <c r="F71" s="70" t="s">
         <v>107</v>
       </c>
       <c r="G71" s="43" t="s">
@@ -8187,10 +8186,10 @@
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="43"/>
-      <c r="L71" s="61" t="s">
+      <c r="L71" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="46"/>
+      <c r="M71" s="67"/>
       <c r="N71" s="43"/>
       <c r="O71" s="43"/>
     </row>
@@ -8200,14 +8199,14 @@
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
       <c r="E72" s="44"/>
-      <c r="F72" s="65"/>
+      <c r="F72" s="71"/>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
       <c r="I72" s="3"/>
       <c r="J72" s="44"/>
       <c r="K72" s="44"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="47"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="68"/>
       <c r="N72" s="44"/>
       <c r="O72" s="44"/>
     </row>
@@ -8219,7 +8218,7 @@
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
-      <c r="F73" s="65"/>
+      <c r="F73" s="71"/>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
       <c r="I73" s="19" t="s">
@@ -8227,8 +8226,8 @@
       </c>
       <c r="J73" s="44"/>
       <c r="K73" s="44"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="47"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="68"/>
       <c r="N73" s="44"/>
       <c r="O73" s="44"/>
     </row>
@@ -8238,7 +8237,7 @@
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
-      <c r="F74" s="65"/>
+      <c r="F74" s="71"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
       <c r="I74" s="20" t="s">
@@ -8246,8 +8245,8 @@
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="44"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="47"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="68"/>
       <c r="N74" s="44"/>
       <c r="O74" s="44"/>
     </row>
@@ -8259,7 +8258,7 @@
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
-      <c r="F75" s="65"/>
+      <c r="F75" s="71"/>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
       <c r="I75" s="20" t="s">
@@ -8267,8 +8266,8 @@
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="44"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="47"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="68"/>
       <c r="N75" s="44"/>
       <c r="O75" s="44"/>
     </row>
@@ -8278,7 +8277,7 @@
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
-      <c r="F76" s="65"/>
+      <c r="F76" s="71"/>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
       <c r="I76" s="20" t="s">
@@ -8286,8 +8285,8 @@
       </c>
       <c r="J76" s="44"/>
       <c r="K76" s="44"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="47"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="68"/>
       <c r="N76" s="44"/>
       <c r="O76" s="44"/>
     </row>
@@ -8297,7 +8296,7 @@
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
-      <c r="F77" s="65"/>
+      <c r="F77" s="71"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
       <c r="I77" s="20" t="s">
@@ -8305,8 +8304,8 @@
       </c>
       <c r="J77" s="44"/>
       <c r="K77" s="44"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="47"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="68"/>
       <c r="N77" s="44"/>
       <c r="O77" s="44"/>
     </row>
@@ -8316,14 +8315,14 @@
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
-      <c r="F78" s="65"/>
+      <c r="F78" s="71"/>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
       <c r="I78" s="21"/>
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="47"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="68"/>
       <c r="N78" s="44"/>
       <c r="O78" s="44"/>
     </row>
@@ -8333,14 +8332,14 @@
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
       <c r="E79" s="44"/>
-      <c r="F79" s="65"/>
+      <c r="F79" s="71"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
       <c r="I79" s="21"/>
       <c r="J79" s="44"/>
       <c r="K79" s="44"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="47"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="68"/>
       <c r="N79" s="44"/>
       <c r="O79" s="44"/>
     </row>
@@ -8350,7 +8349,7 @@
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
       <c r="E80" s="44"/>
-      <c r="F80" s="65"/>
+      <c r="F80" s="71"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
       <c r="I80" s="21" t="s">
@@ -8358,8 +8357,8 @@
       </c>
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="47"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="68"/>
       <c r="N80" s="44"/>
       <c r="O80" s="44"/>
     </row>
@@ -8369,14 +8368,14 @@
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
-      <c r="F81" s="65"/>
+      <c r="F81" s="71"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
       <c r="I81" s="4"/>
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="47"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="68"/>
       <c r="N81" s="44"/>
       <c r="O81" s="44"/>
     </row>
@@ -8386,14 +8385,14 @@
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
-      <c r="F82" s="65"/>
+      <c r="F82" s="71"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
       <c r="I82" s="4"/>
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="47"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="68"/>
       <c r="N82" s="44"/>
       <c r="O82" s="44"/>
     </row>
@@ -8403,14 +8402,14 @@
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
-      <c r="F83" s="65"/>
+      <c r="F83" s="71"/>
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
       <c r="I83" s="4"/>
       <c r="J83" s="44"/>
       <c r="K83" s="44"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="47"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="68"/>
       <c r="N83" s="44"/>
       <c r="O83" s="44"/>
     </row>
@@ -8420,14 +8419,14 @@
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
       <c r="E84" s="44"/>
-      <c r="F84" s="65"/>
+      <c r="F84" s="71"/>
       <c r="G84" s="44"/>
       <c r="H84" s="44"/>
       <c r="I84" s="4"/>
       <c r="J84" s="44"/>
       <c r="K84" s="44"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="47"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="68"/>
       <c r="N84" s="44"/>
       <c r="O84" s="44"/>
     </row>
@@ -8437,14 +8436,14 @@
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
       <c r="E85" s="44"/>
-      <c r="F85" s="65"/>
+      <c r="F85" s="71"/>
       <c r="G85" s="44"/>
       <c r="H85" s="44"/>
       <c r="I85" s="4"/>
       <c r="J85" s="44"/>
       <c r="K85" s="44"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="47"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="68"/>
       <c r="N85" s="44"/>
       <c r="O85" s="44"/>
     </row>
@@ -8454,14 +8453,14 @@
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
       <c r="E86" s="44"/>
-      <c r="F86" s="65"/>
+      <c r="F86" s="71"/>
       <c r="G86" s="44"/>
       <c r="H86" s="44"/>
       <c r="I86" s="4"/>
       <c r="J86" s="44"/>
       <c r="K86" s="44"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="47"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="68"/>
       <c r="N86" s="44"/>
       <c r="O86" s="44"/>
     </row>
@@ -8471,14 +8470,14 @@
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
       <c r="E87" s="44"/>
-      <c r="F87" s="65"/>
+      <c r="F87" s="71"/>
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
       <c r="I87" s="4"/>
       <c r="J87" s="44"/>
       <c r="K87" s="44"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="47"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="68"/>
       <c r="N87" s="44"/>
       <c r="O87" s="44"/>
     </row>
@@ -8488,14 +8487,14 @@
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
       <c r="E88" s="44"/>
-      <c r="F88" s="65"/>
+      <c r="F88" s="71"/>
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
       <c r="I88" s="4"/>
       <c r="J88" s="44"/>
       <c r="K88" s="44"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="47"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="68"/>
       <c r="N88" s="44"/>
       <c r="O88" s="44"/>
     </row>
@@ -8505,14 +8504,14 @@
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
       <c r="E89" s="44"/>
-      <c r="F89" s="65"/>
+      <c r="F89" s="71"/>
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
       <c r="I89" s="4"/>
       <c r="J89" s="44"/>
       <c r="K89" s="44"/>
-      <c r="L89" s="62"/>
-      <c r="M89" s="47"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="68"/>
       <c r="N89" s="44"/>
       <c r="O89" s="44"/>
     </row>
@@ -8522,14 +8521,14 @@
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
       <c r="E90" s="44"/>
-      <c r="F90" s="65"/>
+      <c r="F90" s="71"/>
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
       <c r="I90" s="4"/>
       <c r="J90" s="44"/>
       <c r="K90" s="44"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="47"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="68"/>
       <c r="N90" s="44"/>
       <c r="O90" s="44"/>
     </row>
@@ -8539,14 +8538,14 @@
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
       <c r="E91" s="44"/>
-      <c r="F91" s="65"/>
+      <c r="F91" s="71"/>
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
       <c r="I91" s="4"/>
       <c r="J91" s="44"/>
       <c r="K91" s="44"/>
-      <c r="L91" s="62"/>
-      <c r="M91" s="47"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="68"/>
       <c r="N91" s="44"/>
       <c r="O91" s="44"/>
     </row>
@@ -8556,14 +8555,14 @@
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
       <c r="E92" s="44"/>
-      <c r="F92" s="65"/>
+      <c r="F92" s="71"/>
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
       <c r="I92" s="4"/>
       <c r="J92" s="44"/>
       <c r="K92" s="44"/>
-      <c r="L92" s="62"/>
-      <c r="M92" s="47"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="68"/>
       <c r="N92" s="44"/>
       <c r="O92" s="44"/>
     </row>
@@ -8573,14 +8572,14 @@
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
       <c r="E93" s="44"/>
-      <c r="F93" s="65"/>
+      <c r="F93" s="71"/>
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
       <c r="I93" s="4"/>
       <c r="J93" s="44"/>
       <c r="K93" s="44"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="47"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="68"/>
       <c r="N93" s="44"/>
       <c r="O93" s="44"/>
     </row>
@@ -8590,14 +8589,14 @@
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
       <c r="E94" s="44"/>
-      <c r="F94" s="65"/>
+      <c r="F94" s="71"/>
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
       <c r="I94" s="4"/>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="47"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="68"/>
       <c r="N94" s="44"/>
       <c r="O94" s="44"/>
     </row>
@@ -8607,14 +8606,14 @@
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
       <c r="E95" s="44"/>
-      <c r="F95" s="65"/>
+      <c r="F95" s="71"/>
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
       <c r="I95" s="4"/>
       <c r="J95" s="44"/>
       <c r="K95" s="44"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="47"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="68"/>
       <c r="N95" s="44"/>
       <c r="O95" s="44"/>
     </row>
@@ -8624,14 +8623,14 @@
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
       <c r="E96" s="44"/>
-      <c r="F96" s="65"/>
+      <c r="F96" s="71"/>
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
       <c r="I96" s="4"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="47"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="68"/>
       <c r="N96" s="44"/>
       <c r="O96" s="44"/>
     </row>
@@ -8641,14 +8640,14 @@
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
-      <c r="F97" s="66"/>
+      <c r="F97" s="72"/>
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
       <c r="I97" s="5"/>
       <c r="J97" s="45"/>
       <c r="K97" s="45"/>
-      <c r="L97" s="63"/>
-      <c r="M97" s="48"/>
+      <c r="L97" s="66"/>
+      <c r="M97" s="69"/>
       <c r="N97" s="45"/>
       <c r="O97" s="45"/>
     </row>
@@ -8662,13 +8661,13 @@
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
-      <c r="F98" s="58" t="s">
+      <c r="F98" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="G98" s="58" t="s">
+      <c r="G98" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H98" s="58" t="s">
+      <c r="H98" s="61" t="s">
         <v>121</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -8697,9 +8696,9 @@
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
       <c r="E99" s="44"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
       <c r="I99" s="3"/>
       <c r="J99" s="23"/>
       <c r="K99" s="3"/>
@@ -8716,9 +8715,9 @@
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
       <c r="E100" s="44"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
       <c r="I100" s="3" t="s">
         <v>59</v>
       </c>
@@ -8743,9 +8742,9 @@
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
       <c r="E101" s="44"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
       <c r="I101" s="3"/>
       <c r="J101" s="23"/>
       <c r="K101" s="3"/>
@@ -8762,9 +8761,9 @@
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
       <c r="E102" s="44"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
       <c r="I102" s="23" t="s">
         <v>122</v>
       </c>
@@ -8781,9 +8780,9 @@
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
       <c r="E103" s="44"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
       <c r="I103" s="23"/>
       <c r="J103" s="4"/>
       <c r="K103" s="23" t="s">
@@ -8802,9 +8801,9 @@
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
       <c r="E104" s="44"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
       <c r="I104" s="23" t="s">
         <v>123</v>
       </c>
@@ -8821,9 +8820,9 @@
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
       <c r="E105" s="44"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
       <c r="I105" s="23"/>
       <c r="J105" s="4"/>
       <c r="K105" s="23" t="s">
@@ -8842,9 +8841,9 @@
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
       <c r="E106" s="44"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
       <c r="I106" s="23" t="s">
         <v>124</v>
       </c>
@@ -8861,9 +8860,9 @@
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
       <c r="E107" s="44"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
       <c r="I107" s="23"/>
       <c r="J107" s="4"/>
       <c r="K107" s="23" t="s">
@@ -8880,9 +8879,9 @@
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
       <c r="E108" s="44"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
       <c r="I108" s="23" t="s">
         <v>125</v>
       </c>
@@ -8899,9 +8898,9 @@
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
       <c r="E109" s="44"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
       <c r="I109" s="23"/>
       <c r="J109" s="4"/>
       <c r="K109" s="23" t="s">
@@ -8918,9 +8917,9 @@
       <c r="C110" s="44"/>
       <c r="D110" s="44"/>
       <c r="E110" s="44"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
       <c r="I110" s="23"/>
       <c r="J110" s="4"/>
       <c r="K110" s="3"/>
@@ -8935,9 +8934,9 @@
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
       <c r="E111" s="44"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
       <c r="I111" s="23" t="s">
         <v>126</v>
       </c>
@@ -8954,9 +8953,9 @@
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
       <c r="E112" s="44"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
       <c r="I112" s="23"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -8971,9 +8970,9 @@
       <c r="C113" s="44"/>
       <c r="D113" s="44"/>
       <c r="E113" s="44"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
       <c r="I113" s="3"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -8988,9 +8987,9 @@
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
       <c r="E114" s="44"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
       <c r="I114" s="3"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -9005,9 +9004,9 @@
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
       <c r="E115" s="44"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -9022,9 +9021,9 @@
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
       <c r="E116" s="44"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -9039,9 +9038,9 @@
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
       <c r="E117" s="44"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -9056,9 +9055,9 @@
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
       <c r="E118" s="44"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -9073,9 +9072,9 @@
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
       <c r="E119" s="44"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
-      <c r="H119" s="59"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -9090,9 +9089,9 @@
       <c r="C120" s="44"/>
       <c r="D120" s="44"/>
       <c r="E120" s="44"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -9107,9 +9106,9 @@
       <c r="C121" s="44"/>
       <c r="D121" s="44"/>
       <c r="E121" s="44"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -9124,9 +9123,9 @@
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
       <c r="E122" s="44"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="59"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
       <c r="I122" s="23"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -9141,9 +9140,9 @@
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -9156,7 +9155,7 @@
       <c r="A124" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="52" t="s">
         <v>144</v>
       </c>
       <c r="C124" s="43"/>
@@ -9166,45 +9165,45 @@
       <c r="G124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H124" s="67" t="s">
+      <c r="H124" s="52" t="s">
         <v>147</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J124" s="58" t="s">
+      <c r="J124" s="61" t="s">
         <v>25</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L124" s="58"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="67" t="s">
+      <c r="L124" s="61"/>
+      <c r="M124" s="61"/>
+      <c r="N124" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O124" s="58"/>
+      <c r="O124" s="61"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="44"/>
-      <c r="B125" s="68"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
       <c r="E125" s="44"/>
       <c r="F125" s="44"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="68"/>
+      <c r="H125" s="53"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="59"/>
+      <c r="J125" s="62"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="59"/>
-      <c r="M125" s="59"/>
-      <c r="N125" s="68"/>
-      <c r="O125" s="59"/>
+      <c r="L125" s="62"/>
+      <c r="M125" s="62"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="62"/>
     </row>
     <row r="126" spans="1:15" ht="41.4">
       <c r="A126" s="44"/>
-      <c r="B126" s="68"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
       <c r="E126" s="44"/>
@@ -9212,398 +9211,398 @@
       <c r="G126" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H126" s="68"/>
+      <c r="H126" s="53"/>
       <c r="I126" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J126" s="59"/>
+      <c r="J126" s="62"/>
       <c r="K126" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="L126" s="59"/>
-      <c r="M126" s="59"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="59"/>
+      <c r="L126" s="62"/>
+      <c r="M126" s="62"/>
+      <c r="N126" s="53"/>
+      <c r="O126" s="62"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="44"/>
-      <c r="B127" s="68"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
       <c r="E127" s="44"/>
       <c r="F127" s="44"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="68"/>
+      <c r="H127" s="53"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="59"/>
+      <c r="J127" s="62"/>
       <c r="K127" s="27"/>
-      <c r="L127" s="59"/>
-      <c r="M127" s="59"/>
-      <c r="N127" s="68"/>
-      <c r="O127" s="59"/>
+      <c r="L127" s="62"/>
+      <c r="M127" s="62"/>
+      <c r="N127" s="53"/>
+      <c r="O127" s="62"/>
     </row>
     <row r="128" spans="1:15" ht="27.6">
       <c r="A128" s="44"/>
-      <c r="B128" s="68"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
       <c r="E128" s="44"/>
       <c r="F128" s="44"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="68"/>
+      <c r="H128" s="53"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="59"/>
+      <c r="J128" s="62"/>
       <c r="K128" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="L128" s="59"/>
-      <c r="M128" s="59"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="59"/>
+      <c r="L128" s="62"/>
+      <c r="M128" s="62"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="62"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="44"/>
-      <c r="B129" s="68"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
       <c r="E129" s="44"/>
       <c r="F129" s="44"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="68"/>
+      <c r="H129" s="53"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="59"/>
+      <c r="J129" s="62"/>
       <c r="K129" s="27"/>
-      <c r="L129" s="59"/>
-      <c r="M129" s="59"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="59"/>
+      <c r="L129" s="62"/>
+      <c r="M129" s="62"/>
+      <c r="N129" s="53"/>
+      <c r="O129" s="62"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="44"/>
-      <c r="B130" s="68"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
       <c r="E130" s="44"/>
       <c r="F130" s="44"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="68"/>
+      <c r="H130" s="53"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="59"/>
+      <c r="J130" s="62"/>
       <c r="K130" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L130" s="59"/>
-      <c r="M130" s="59"/>
-      <c r="N130" s="68"/>
-      <c r="O130" s="59"/>
+      <c r="L130" s="62"/>
+      <c r="M130" s="62"/>
+      <c r="N130" s="53"/>
+      <c r="O130" s="62"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="44"/>
-      <c r="B131" s="68"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
       <c r="E131" s="44"/>
       <c r="F131" s="44"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="68"/>
+      <c r="H131" s="53"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="59"/>
+      <c r="J131" s="62"/>
       <c r="K131" s="27"/>
-      <c r="L131" s="59"/>
-      <c r="M131" s="59"/>
-      <c r="N131" s="68"/>
-      <c r="O131" s="59"/>
+      <c r="L131" s="62"/>
+      <c r="M131" s="62"/>
+      <c r="N131" s="53"/>
+      <c r="O131" s="62"/>
     </row>
     <row r="132" spans="1:15" ht="41.4">
       <c r="A132" s="44"/>
-      <c r="B132" s="68"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
       <c r="E132" s="44"/>
       <c r="F132" s="44"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="68"/>
+      <c r="H132" s="53"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="59"/>
+      <c r="J132" s="62"/>
       <c r="K132" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="L132" s="59"/>
-      <c r="M132" s="59"/>
-      <c r="N132" s="68"/>
-      <c r="O132" s="59"/>
+      <c r="L132" s="62"/>
+      <c r="M132" s="62"/>
+      <c r="N132" s="53"/>
+      <c r="O132" s="62"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="44"/>
-      <c r="B133" s="68"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
       <c r="F133" s="44"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="68"/>
+      <c r="H133" s="53"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="59"/>
+      <c r="J133" s="62"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="59"/>
-      <c r="M133" s="59"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="59"/>
+      <c r="L133" s="62"/>
+      <c r="M133" s="62"/>
+      <c r="N133" s="53"/>
+      <c r="O133" s="62"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="44"/>
-      <c r="B134" s="68"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
       <c r="E134" s="44"/>
       <c r="F134" s="44"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="68"/>
+      <c r="H134" s="53"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="59"/>
+      <c r="J134" s="62"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="59"/>
-      <c r="M134" s="59"/>
-      <c r="N134" s="68"/>
-      <c r="O134" s="59"/>
+      <c r="L134" s="62"/>
+      <c r="M134" s="62"/>
+      <c r="N134" s="53"/>
+      <c r="O134" s="62"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="44"/>
-      <c r="B135" s="68"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
       <c r="E135" s="44"/>
       <c r="F135" s="44"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="68"/>
+      <c r="H135" s="53"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="59"/>
+      <c r="J135" s="62"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="59"/>
-      <c r="M135" s="59"/>
-      <c r="N135" s="68"/>
-      <c r="O135" s="59"/>
+      <c r="L135" s="62"/>
+      <c r="M135" s="62"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="62"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="44"/>
-      <c r="B136" s="68"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
       <c r="E136" s="44"/>
       <c r="F136" s="44"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="68"/>
+      <c r="H136" s="53"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="59"/>
+      <c r="J136" s="62"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="59"/>
-      <c r="M136" s="59"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="59"/>
+      <c r="L136" s="62"/>
+      <c r="M136" s="62"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="62"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="44"/>
-      <c r="B137" s="68"/>
+      <c r="B137" s="53"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
       <c r="E137" s="44"/>
       <c r="F137" s="44"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="68"/>
+      <c r="H137" s="53"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="59"/>
+      <c r="J137" s="62"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="59"/>
-      <c r="M137" s="59"/>
-      <c r="N137" s="68"/>
-      <c r="O137" s="59"/>
+      <c r="L137" s="62"/>
+      <c r="M137" s="62"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="62"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="44"/>
-      <c r="B138" s="68"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
       <c r="E138" s="44"/>
       <c r="F138" s="44"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="68"/>
+      <c r="H138" s="53"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="59"/>
+      <c r="J138" s="62"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="59"/>
-      <c r="M138" s="59"/>
-      <c r="N138" s="68"/>
-      <c r="O138" s="59"/>
+      <c r="L138" s="62"/>
+      <c r="M138" s="62"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="62"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="44"/>
-      <c r="B139" s="68"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
       <c r="E139" s="44"/>
       <c r="F139" s="44"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="68"/>
+      <c r="H139" s="53"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="59"/>
+      <c r="J139" s="62"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="59"/>
-      <c r="M139" s="59"/>
-      <c r="N139" s="68"/>
-      <c r="O139" s="59"/>
+      <c r="L139" s="62"/>
+      <c r="M139" s="62"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="62"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="44"/>
-      <c r="B140" s="68"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
       <c r="E140" s="44"/>
       <c r="F140" s="44"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="68"/>
+      <c r="H140" s="53"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="59"/>
+      <c r="J140" s="62"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="59"/>
-      <c r="M140" s="59"/>
-      <c r="N140" s="68"/>
-      <c r="O140" s="59"/>
+      <c r="L140" s="62"/>
+      <c r="M140" s="62"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="62"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="44"/>
-      <c r="B141" s="68"/>
+      <c r="B141" s="53"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
       <c r="E141" s="44"/>
       <c r="F141" s="44"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="68"/>
+      <c r="H141" s="53"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="59"/>
+      <c r="J141" s="62"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="59"/>
-      <c r="M141" s="59"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="59"/>
+      <c r="L141" s="62"/>
+      <c r="M141" s="62"/>
+      <c r="N141" s="53"/>
+      <c r="O141" s="62"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="44"/>
-      <c r="B142" s="68"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="68"/>
+      <c r="H142" s="53"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="59"/>
+      <c r="J142" s="62"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="59"/>
-      <c r="M142" s="59"/>
-      <c r="N142" s="68"/>
-      <c r="O142" s="59"/>
+      <c r="L142" s="62"/>
+      <c r="M142" s="62"/>
+      <c r="N142" s="53"/>
+      <c r="O142" s="62"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="44"/>
-      <c r="B143" s="68"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
       <c r="E143" s="44"/>
       <c r="F143" s="44"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="68"/>
+      <c r="H143" s="53"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="59"/>
+      <c r="J143" s="62"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="59"/>
-      <c r="M143" s="59"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="59"/>
+      <c r="L143" s="62"/>
+      <c r="M143" s="62"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="62"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="44"/>
-      <c r="B144" s="68"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
       <c r="E144" s="44"/>
       <c r="F144" s="44"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="68"/>
+      <c r="H144" s="53"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="59"/>
+      <c r="J144" s="62"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="59"/>
-      <c r="M144" s="59"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="59"/>
+      <c r="L144" s="62"/>
+      <c r="M144" s="62"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="62"/>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="44"/>
-      <c r="B145" s="68"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
       <c r="E145" s="44"/>
       <c r="F145" s="44"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="68"/>
+      <c r="H145" s="53"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="59"/>
+      <c r="J145" s="62"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="59"/>
-      <c r="M145" s="59"/>
-      <c r="N145" s="68"/>
-      <c r="O145" s="59"/>
+      <c r="L145" s="62"/>
+      <c r="M145" s="62"/>
+      <c r="N145" s="53"/>
+      <c r="O145" s="62"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="44"/>
-      <c r="B146" s="68"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
       <c r="E146" s="44"/>
       <c r="F146" s="44"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="68"/>
+      <c r="H146" s="53"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="59"/>
+      <c r="J146" s="62"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="59"/>
-      <c r="M146" s="59"/>
-      <c r="N146" s="68"/>
-      <c r="O146" s="59"/>
+      <c r="L146" s="62"/>
+      <c r="M146" s="62"/>
+      <c r="N146" s="53"/>
+      <c r="O146" s="62"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="44"/>
-      <c r="B147" s="68"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
       <c r="E147" s="44"/>
       <c r="F147" s="44"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="68"/>
+      <c r="H147" s="53"/>
       <c r="I147" s="4"/>
-      <c r="J147" s="59"/>
+      <c r="J147" s="62"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="59"/>
-      <c r="M147" s="59"/>
-      <c r="N147" s="68"/>
-      <c r="O147" s="59"/>
+      <c r="L147" s="62"/>
+      <c r="M147" s="62"/>
+      <c r="N147" s="53"/>
+      <c r="O147" s="62"/>
     </row>
     <row r="148" spans="1:15" ht="15" thickBot="1">
       <c r="A148" s="45"/>
-      <c r="B148" s="69"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="45"/>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
       <c r="F148" s="45"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="69"/>
+      <c r="H148" s="54"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="60"/>
+      <c r="J148" s="63"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="60"/>
-      <c r="M148" s="60"/>
-      <c r="N148" s="69"/>
-      <c r="O148" s="60"/>
+      <c r="L148" s="63"/>
+      <c r="M148" s="63"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="63"/>
     </row>
     <row r="149" spans="1:15" ht="28.8">
       <c r="A149" s="43" t="s">
@@ -9625,7 +9624,7 @@
       <c r="I149" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J149" s="58" t="s">
+      <c r="J149" s="61" t="s">
         <v>25</v>
       </c>
       <c r="K149" s="2" t="s">
@@ -9634,8 +9633,8 @@
       <c r="L149" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M149" s="58"/>
-      <c r="N149" s="67"/>
+      <c r="M149" s="61"/>
+      <c r="N149" s="52"/>
       <c r="O149" s="2" t="s">
         <v>179</v>
       </c>
@@ -9652,15 +9651,15 @@
       <c r="G150" s="44"/>
       <c r="H150" s="44"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="59"/>
+      <c r="J150" s="62"/>
       <c r="K150" s="3" t="s">
         <v>167</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M150" s="59"/>
-      <c r="N150" s="68"/>
+      <c r="M150" s="62"/>
+      <c r="N150" s="53"/>
       <c r="O150" s="3" t="s">
         <v>180</v>
       </c>
@@ -9679,15 +9678,15 @@
       <c r="I151" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="J151" s="59"/>
+      <c r="J151" s="62"/>
       <c r="K151" s="3" t="s">
         <v>168</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M151" s="59"/>
-      <c r="N151" s="68"/>
+      <c r="M151" s="62"/>
+      <c r="N151" s="53"/>
       <c r="O151" s="3" t="s">
         <v>181</v>
       </c>
@@ -9704,13 +9703,13 @@
       <c r="I152" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="J152" s="59"/>
+      <c r="J152" s="62"/>
       <c r="K152" s="4"/>
       <c r="L152" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M152" s="59"/>
-      <c r="N152" s="68"/>
+      <c r="M152" s="62"/>
+      <c r="N152" s="53"/>
       <c r="O152" s="3" t="s">
         <v>182</v>
       </c>
@@ -9727,13 +9726,13 @@
       <c r="I153" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J153" s="59"/>
+      <c r="J153" s="62"/>
       <c r="K153" s="4"/>
       <c r="L153" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M153" s="59"/>
-      <c r="N153" s="68"/>
+      <c r="M153" s="62"/>
+      <c r="N153" s="53"/>
       <c r="O153" s="3" t="s">
         <v>183</v>
       </c>
@@ -9750,13 +9749,13 @@
       <c r="I154" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="J154" s="59"/>
+      <c r="J154" s="62"/>
       <c r="K154" s="4"/>
       <c r="L154" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M154" s="59"/>
-      <c r="N154" s="68"/>
+      <c r="M154" s="62"/>
+      <c r="N154" s="53"/>
       <c r="O154" s="3" t="s">
         <v>184</v>
       </c>
@@ -9771,13 +9770,13 @@
       <c r="G155" s="44"/>
       <c r="H155" s="44"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="59"/>
+      <c r="J155" s="62"/>
       <c r="K155" s="4"/>
       <c r="L155" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M155" s="59"/>
-      <c r="N155" s="68"/>
+      <c r="M155" s="62"/>
+      <c r="N155" s="53"/>
       <c r="O155" s="3"/>
     </row>
     <row r="156" spans="1:15" ht="30">
@@ -9792,13 +9791,13 @@
       <c r="I156" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J156" s="59"/>
+      <c r="J156" s="62"/>
       <c r="K156" s="4"/>
       <c r="L156" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M156" s="59"/>
-      <c r="N156" s="68"/>
+      <c r="M156" s="62"/>
+      <c r="N156" s="53"/>
       <c r="O156" s="3" t="s">
         <v>185</v>
       </c>
@@ -9815,11 +9814,11 @@
       <c r="I157" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J157" s="59"/>
+      <c r="J157" s="62"/>
       <c r="K157" s="4"/>
       <c r="L157" s="3"/>
-      <c r="M157" s="59"/>
-      <c r="N157" s="68"/>
+      <c r="M157" s="62"/>
+      <c r="N157" s="53"/>
       <c r="O157" s="3" t="s">
         <v>186</v>
       </c>
@@ -9834,13 +9833,13 @@
       <c r="G158" s="44"/>
       <c r="H158" s="44"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="59"/>
+      <c r="J158" s="62"/>
       <c r="K158" s="4"/>
       <c r="L158" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M158" s="59"/>
-      <c r="N158" s="68"/>
+      <c r="M158" s="62"/>
+      <c r="N158" s="53"/>
       <c r="O158" s="3" t="s">
         <v>187</v>
       </c>
@@ -9855,13 +9854,13 @@
       <c r="G159" s="44"/>
       <c r="H159" s="44"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="59"/>
+      <c r="J159" s="62"/>
       <c r="K159" s="4"/>
       <c r="L159" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M159" s="59"/>
-      <c r="N159" s="68"/>
+      <c r="M159" s="62"/>
+      <c r="N159" s="53"/>
       <c r="O159" s="3" t="s">
         <v>188</v>
       </c>
@@ -9876,11 +9875,11 @@
       <c r="G160" s="44"/>
       <c r="H160" s="44"/>
       <c r="I160" s="4"/>
-      <c r="J160" s="59"/>
+      <c r="J160" s="62"/>
       <c r="K160" s="4"/>
       <c r="L160" s="3"/>
-      <c r="M160" s="59"/>
-      <c r="N160" s="68"/>
+      <c r="M160" s="62"/>
+      <c r="N160" s="53"/>
       <c r="O160" s="3" t="s">
         <v>189</v>
       </c>
@@ -9895,11 +9894,11 @@
       <c r="G161" s="44"/>
       <c r="H161" s="44"/>
       <c r="I161" s="4"/>
-      <c r="J161" s="59"/>
+      <c r="J161" s="62"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="59"/>
-      <c r="N161" s="68"/>
+      <c r="M161" s="62"/>
+      <c r="N161" s="53"/>
       <c r="O161" s="3" t="s">
         <v>190</v>
       </c>
@@ -9914,11 +9913,11 @@
       <c r="G162" s="44"/>
       <c r="H162" s="44"/>
       <c r="I162" s="4"/>
-      <c r="J162" s="59"/>
+      <c r="J162" s="62"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="59"/>
-      <c r="N162" s="68"/>
+      <c r="M162" s="62"/>
+      <c r="N162" s="53"/>
       <c r="O162" s="3" t="s">
         <v>191</v>
       </c>
@@ -9933,11 +9932,11 @@
       <c r="G163" s="44"/>
       <c r="H163" s="44"/>
       <c r="I163" s="4"/>
-      <c r="J163" s="59"/>
+      <c r="J163" s="62"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="59"/>
-      <c r="N163" s="68"/>
+      <c r="M163" s="62"/>
+      <c r="N163" s="53"/>
       <c r="O163" s="3" t="s">
         <v>192</v>
       </c>
@@ -9952,11 +9951,11 @@
       <c r="G164" s="44"/>
       <c r="H164" s="44"/>
       <c r="I164" s="4"/>
-      <c r="J164" s="59"/>
+      <c r="J164" s="62"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="68"/>
+      <c r="M164" s="62"/>
+      <c r="N164" s="53"/>
       <c r="O164" s="3" t="s">
         <v>193</v>
       </c>
@@ -9971,11 +9970,11 @@
       <c r="G165" s="44"/>
       <c r="H165" s="44"/>
       <c r="I165" s="4"/>
-      <c r="J165" s="59"/>
+      <c r="J165" s="62"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="68"/>
+      <c r="M165" s="62"/>
+      <c r="N165" s="53"/>
       <c r="O165" s="3" t="s">
         <v>194</v>
       </c>
@@ -9990,11 +9989,11 @@
       <c r="G166" s="44"/>
       <c r="H166" s="44"/>
       <c r="I166" s="4"/>
-      <c r="J166" s="59"/>
+      <c r="J166" s="62"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="68"/>
+      <c r="M166" s="62"/>
+      <c r="N166" s="53"/>
       <c r="O166" s="3" t="s">
         <v>195</v>
       </c>
@@ -10009,11 +10008,11 @@
       <c r="G167" s="44"/>
       <c r="H167" s="44"/>
       <c r="I167" s="4"/>
-      <c r="J167" s="59"/>
+      <c r="J167" s="62"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="68"/>
+      <c r="M167" s="62"/>
+      <c r="N167" s="53"/>
       <c r="O167" s="3" t="s">
         <v>196</v>
       </c>
@@ -10028,11 +10027,11 @@
       <c r="G168" s="44"/>
       <c r="H168" s="44"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="59"/>
+      <c r="J168" s="62"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="68"/>
+      <c r="M168" s="62"/>
+      <c r="N168" s="53"/>
       <c r="O168" s="3" t="s">
         <v>197</v>
       </c>
@@ -10047,21 +10046,21 @@
       <c r="G169" s="45"/>
       <c r="H169" s="45"/>
       <c r="I169" s="5"/>
-      <c r="J169" s="60"/>
+      <c r="J169" s="63"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="69"/>
+      <c r="M169" s="63"/>
+      <c r="N169" s="54"/>
       <c r="O169" s="6"/>
     </row>
     <row r="170" spans="1:15" ht="28.8">
       <c r="A170" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B170" s="52" t="s">
+      <c r="B170" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C170" s="49" t="s">
         <v>200</v>
       </c>
       <c r="D170" s="43"/>
@@ -10070,19 +10069,19 @@
       <c r="G170" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H170" s="52" t="s">
+      <c r="H170" s="49" t="s">
         <v>203</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J170" s="52" t="s">
+      <c r="J170" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="K170" s="52" t="s">
+      <c r="K170" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="L170" s="52" t="s">
+      <c r="L170" s="49" t="s">
         <v>208</v>
       </c>
       <c r="M170" s="22" t="s">
@@ -10095,38 +10094,38 @@
     </row>
     <row r="171" spans="1:15" ht="15.6">
       <c r="A171" s="44"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="44"/>
       <c r="E171" s="44"/>
       <c r="F171" s="44"/>
       <c r="G171" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H171" s="53"/>
+      <c r="H171" s="50"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="53"/>
-      <c r="K171" s="53"/>
-      <c r="L171" s="53"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
       <c r="M171" s="23"/>
       <c r="N171" s="27"/>
       <c r="O171" s="44"/>
     </row>
     <row r="172" spans="1:15" ht="15.6">
       <c r="A172" s="44"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="44"/>
       <c r="E172" s="44"/>
       <c r="F172" s="44"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="53"/>
+      <c r="H172" s="50"/>
       <c r="I172" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J172" s="53"/>
-      <c r="K172" s="53"/>
-      <c r="L172" s="53"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
       <c r="M172" s="23" t="s">
         <v>210</v>
       </c>
@@ -10137,36 +10136,36 @@
     </row>
     <row r="173" spans="1:15" ht="15.6">
       <c r="A173" s="44"/>
-      <c r="B173" s="53"/>
-      <c r="C173" s="53"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
       <c r="D173" s="44"/>
       <c r="E173" s="44"/>
       <c r="F173" s="44"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="53"/>
+      <c r="H173" s="50"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="53"/>
-      <c r="K173" s="53"/>
-      <c r="L173" s="53"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="50"/>
+      <c r="L173" s="50"/>
       <c r="M173" s="23"/>
       <c r="N173" s="4"/>
       <c r="O173" s="44"/>
     </row>
     <row r="174" spans="1:15" ht="15.6">
       <c r="A174" s="44"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="53"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
       <c r="D174" s="44"/>
       <c r="E174" s="44"/>
       <c r="F174" s="44"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="53"/>
+      <c r="H174" s="50"/>
       <c r="I174" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J174" s="53"/>
-      <c r="K174" s="53"/>
-      <c r="L174" s="53"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="50"/>
       <c r="M174" s="23" t="s">
         <v>211</v>
       </c>
@@ -10175,308 +10174,308 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="44"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="53"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
       <c r="D175" s="44"/>
       <c r="E175" s="44"/>
       <c r="F175" s="44"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="53"/>
+      <c r="H175" s="50"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="53"/>
-      <c r="K175" s="53"/>
-      <c r="L175" s="53"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="50"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="44"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="44"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="53"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="50"/>
       <c r="D176" s="44"/>
       <c r="E176" s="44"/>
       <c r="F176" s="44"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="53"/>
+      <c r="H176" s="50"/>
       <c r="I176" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J176" s="53"/>
-      <c r="K176" s="53"/>
-      <c r="L176" s="53"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="50"/>
+      <c r="L176" s="50"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="44"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="44"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
       <c r="D177" s="44"/>
       <c r="E177" s="44"/>
       <c r="F177" s="44"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="53"/>
+      <c r="H177" s="50"/>
       <c r="I177" s="4"/>
-      <c r="J177" s="53"/>
-      <c r="K177" s="53"/>
-      <c r="L177" s="53"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="50"/>
+      <c r="L177" s="50"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="44"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="44"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
       <c r="D178" s="44"/>
       <c r="E178" s="44"/>
       <c r="F178" s="44"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="53"/>
+      <c r="H178" s="50"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="53"/>
-      <c r="K178" s="53"/>
-      <c r="L178" s="53"/>
+      <c r="J178" s="50"/>
+      <c r="K178" s="50"/>
+      <c r="L178" s="50"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="44"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="44"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="50"/>
       <c r="D179" s="44"/>
       <c r="E179" s="44"/>
       <c r="F179" s="44"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="53"/>
+      <c r="H179" s="50"/>
       <c r="I179" s="4"/>
-      <c r="J179" s="53"/>
-      <c r="K179" s="53"/>
-      <c r="L179" s="53"/>
+      <c r="J179" s="50"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="50"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="44"/>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="44"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
       <c r="D180" s="44"/>
       <c r="E180" s="44"/>
       <c r="F180" s="44"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="53"/>
+      <c r="H180" s="50"/>
       <c r="I180" s="4"/>
-      <c r="J180" s="53"/>
-      <c r="K180" s="53"/>
-      <c r="L180" s="53"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="50"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="44"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="44"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="50"/>
       <c r="D181" s="44"/>
       <c r="E181" s="44"/>
       <c r="F181" s="44"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="53"/>
+      <c r="H181" s="50"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="53"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="50"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="44"/>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="44"/>
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="50"/>
       <c r="D182" s="44"/>
       <c r="E182" s="44"/>
       <c r="F182" s="44"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="53"/>
+      <c r="H182" s="50"/>
       <c r="I182" s="4"/>
-      <c r="J182" s="53"/>
-      <c r="K182" s="53"/>
-      <c r="L182" s="53"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="50"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="44"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="44"/>
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
+      <c r="B183" s="50"/>
+      <c r="C183" s="50"/>
       <c r="D183" s="44"/>
       <c r="E183" s="44"/>
       <c r="F183" s="44"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="53"/>
+      <c r="H183" s="50"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="53"/>
-      <c r="K183" s="53"/>
-      <c r="L183" s="53"/>
+      <c r="J183" s="50"/>
+      <c r="K183" s="50"/>
+      <c r="L183" s="50"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="44"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="44"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="50"/>
       <c r="D184" s="44"/>
       <c r="E184" s="44"/>
       <c r="F184" s="44"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="53"/>
+      <c r="H184" s="50"/>
       <c r="I184" s="4"/>
-      <c r="J184" s="53"/>
-      <c r="K184" s="53"/>
-      <c r="L184" s="53"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="44"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="44"/>
-      <c r="B185" s="53"/>
-      <c r="C185" s="53"/>
+      <c r="B185" s="50"/>
+      <c r="C185" s="50"/>
       <c r="D185" s="44"/>
       <c r="E185" s="44"/>
       <c r="F185" s="44"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="53"/>
+      <c r="H185" s="50"/>
       <c r="I185" s="4"/>
-      <c r="J185" s="53"/>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
+      <c r="J185" s="50"/>
+      <c r="K185" s="50"/>
+      <c r="L185" s="50"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="44"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="44"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="53"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="50"/>
       <c r="D186" s="44"/>
       <c r="E186" s="44"/>
       <c r="F186" s="44"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="53"/>
+      <c r="H186" s="50"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="53"/>
-      <c r="K186" s="53"/>
-      <c r="L186" s="53"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="50"/>
+      <c r="L186" s="50"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="44"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="44"/>
-      <c r="B187" s="53"/>
-      <c r="C187" s="53"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="50"/>
       <c r="D187" s="44"/>
       <c r="E187" s="44"/>
       <c r="F187" s="44"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="53"/>
+      <c r="H187" s="50"/>
       <c r="I187" s="4"/>
-      <c r="J187" s="53"/>
-      <c r="K187" s="53"/>
-      <c r="L187" s="53"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="50"/>
+      <c r="L187" s="50"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="44"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="44"/>
-      <c r="B188" s="53"/>
-      <c r="C188" s="53"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="44"/>
       <c r="E188" s="44"/>
       <c r="F188" s="44"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="53"/>
+      <c r="H188" s="50"/>
       <c r="I188" s="4"/>
-      <c r="J188" s="53"/>
-      <c r="K188" s="53"/>
-      <c r="L188" s="53"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="50"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="44"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="44"/>
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="44"/>
       <c r="E189" s="44"/>
       <c r="F189" s="44"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="53"/>
+      <c r="H189" s="50"/>
       <c r="I189" s="4"/>
-      <c r="J189" s="53"/>
-      <c r="K189" s="53"/>
-      <c r="L189" s="53"/>
+      <c r="J189" s="50"/>
+      <c r="K189" s="50"/>
+      <c r="L189" s="50"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="44"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="44"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
       <c r="D190" s="44"/>
       <c r="E190" s="44"/>
       <c r="F190" s="44"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="53"/>
+      <c r="H190" s="50"/>
       <c r="I190" s="4"/>
-      <c r="J190" s="53"/>
-      <c r="K190" s="53"/>
-      <c r="L190" s="53"/>
+      <c r="J190" s="50"/>
+      <c r="K190" s="50"/>
+      <c r="L190" s="50"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="44"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="44"/>
-      <c r="B191" s="53"/>
-      <c r="C191" s="53"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="44"/>
       <c r="E191" s="44"/>
       <c r="F191" s="44"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="53"/>
+      <c r="H191" s="50"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="53"/>
-      <c r="K191" s="53"/>
-      <c r="L191" s="53"/>
+      <c r="J191" s="50"/>
+      <c r="K191" s="50"/>
+      <c r="L191" s="50"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="44"/>
     </row>
     <row r="192" spans="1:15" ht="15" thickBot="1">
       <c r="A192" s="45"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="54"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="51"/>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
       <c r="F192" s="45"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="54"/>
+      <c r="H192" s="51"/>
       <c r="I192" s="5"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="54"/>
-      <c r="L192" s="54"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="51"/>
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
       <c r="O192" s="45"/>
@@ -10485,10 +10484,10 @@
       <c r="A193" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="B193" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C193" s="52"/>
+      <c r="C193" s="49"/>
       <c r="D193" s="43"/>
       <c r="E193" s="43"/>
       <c r="F193" s="43"/>
@@ -10501,11 +10500,11 @@
       <c r="I193" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J193" s="52"/>
+      <c r="J193" s="49"/>
       <c r="K193" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="L193" s="49" t="s">
+      <c r="L193" s="46" t="s">
         <v>235</v>
       </c>
       <c r="M193" s="8" t="s">
@@ -10518,25 +10517,25 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="44"/>
-      <c r="B194" s="53"/>
-      <c r="C194" s="53"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
       <c r="D194" s="44"/>
       <c r="E194" s="44"/>
       <c r="F194" s="44"/>
       <c r="G194" s="44"/>
       <c r="H194" s="7"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="53"/>
+      <c r="J194" s="50"/>
       <c r="K194" s="44"/>
-      <c r="L194" s="50"/>
+      <c r="L194" s="47"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
       <c r="O194" s="44"/>
     </row>
     <row r="195" spans="1:15" ht="110.4">
       <c r="A195" s="44"/>
-      <c r="B195" s="53"/>
-      <c r="C195" s="53"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
       <c r="D195" s="44"/>
       <c r="E195" s="44"/>
       <c r="F195" s="44"/>
@@ -10547,9 +10546,9 @@
       <c r="I195" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J195" s="53"/>
+      <c r="J195" s="50"/>
       <c r="K195" s="44"/>
-      <c r="L195" s="50"/>
+      <c r="L195" s="47"/>
       <c r="M195" s="7" t="s">
         <v>237</v>
       </c>
@@ -10560,25 +10559,25 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="44"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
       <c r="D196" s="44"/>
       <c r="E196" s="44"/>
       <c r="F196" s="44"/>
       <c r="G196" s="44"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
-      <c r="J196" s="53"/>
+      <c r="J196" s="50"/>
       <c r="K196" s="44"/>
-      <c r="L196" s="50"/>
+      <c r="L196" s="47"/>
       <c r="M196" s="4"/>
       <c r="N196" s="7"/>
       <c r="O196" s="44"/>
     </row>
     <row r="197" spans="1:15" ht="193.2">
       <c r="A197" s="44"/>
-      <c r="B197" s="53"/>
-      <c r="C197" s="53"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="50"/>
       <c r="D197" s="44"/>
       <c r="E197" s="44"/>
       <c r="F197" s="44"/>
@@ -10589,34 +10588,34 @@
       <c r="I197" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J197" s="53"/>
+      <c r="J197" s="50"/>
       <c r="K197" s="44"/>
-      <c r="L197" s="50"/>
+      <c r="L197" s="47"/>
       <c r="M197" s="4"/>
       <c r="N197" s="3"/>
       <c r="O197" s="44"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="44"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="53"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
       <c r="D198" s="44"/>
       <c r="E198" s="44"/>
       <c r="F198" s="44"/>
       <c r="G198" s="44"/>
       <c r="H198" s="7"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="53"/>
+      <c r="J198" s="50"/>
       <c r="K198" s="44"/>
-      <c r="L198" s="50"/>
+      <c r="L198" s="47"/>
       <c r="M198" s="4"/>
       <c r="N198" s="3"/>
       <c r="O198" s="44"/>
     </row>
     <row r="199" spans="1:15" ht="110.4">
       <c r="A199" s="44"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="53"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="50"/>
       <c r="D199" s="44"/>
       <c r="E199" s="44"/>
       <c r="F199" s="44"/>
@@ -10627,204 +10626,204 @@
       <c r="I199" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J199" s="53"/>
+      <c r="J199" s="50"/>
       <c r="K199" s="44"/>
-      <c r="L199" s="50"/>
+      <c r="L199" s="47"/>
       <c r="M199" s="4"/>
       <c r="N199" s="3"/>
       <c r="O199" s="44"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="44"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="53"/>
+      <c r="B200" s="50"/>
+      <c r="C200" s="50"/>
       <c r="D200" s="44"/>
       <c r="E200" s="44"/>
       <c r="F200" s="44"/>
       <c r="G200" s="44"/>
       <c r="H200" s="4"/>
       <c r="I200" s="7"/>
-      <c r="J200" s="53"/>
+      <c r="J200" s="50"/>
       <c r="K200" s="44"/>
-      <c r="L200" s="50"/>
+      <c r="L200" s="47"/>
       <c r="M200" s="4"/>
       <c r="N200" s="3"/>
       <c r="O200" s="44"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="44"/>
-      <c r="B201" s="53"/>
-      <c r="C201" s="53"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="50"/>
       <c r="D201" s="44"/>
       <c r="E201" s="44"/>
       <c r="F201" s="44"/>
       <c r="G201" s="44"/>
       <c r="H201" s="4"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="53"/>
+      <c r="J201" s="50"/>
       <c r="K201" s="44"/>
-      <c r="L201" s="50"/>
+      <c r="L201" s="47"/>
       <c r="M201" s="4"/>
       <c r="N201" s="3"/>
       <c r="O201" s="44"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="44"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="53"/>
+      <c r="B202" s="50"/>
+      <c r="C202" s="50"/>
       <c r="D202" s="44"/>
       <c r="E202" s="44"/>
       <c r="F202" s="44"/>
       <c r="G202" s="44"/>
       <c r="H202" s="4"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="53"/>
+      <c r="J202" s="50"/>
       <c r="K202" s="44"/>
-      <c r="L202" s="50"/>
+      <c r="L202" s="47"/>
       <c r="M202" s="4"/>
       <c r="N202" s="3"/>
       <c r="O202" s="44"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="44"/>
-      <c r="B203" s="53"/>
-      <c r="C203" s="53"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="50"/>
       <c r="D203" s="44"/>
       <c r="E203" s="44"/>
       <c r="F203" s="44"/>
       <c r="G203" s="44"/>
       <c r="H203" s="4"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="53"/>
+      <c r="J203" s="50"/>
       <c r="K203" s="44"/>
-      <c r="L203" s="50"/>
+      <c r="L203" s="47"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
       <c r="O203" s="44"/>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="44"/>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="50"/>
       <c r="D204" s="44"/>
       <c r="E204" s="44"/>
       <c r="F204" s="44"/>
       <c r="G204" s="44"/>
       <c r="H204" s="4"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="53"/>
+      <c r="J204" s="50"/>
       <c r="K204" s="44"/>
-      <c r="L204" s="50"/>
+      <c r="L204" s="47"/>
       <c r="M204" s="4"/>
       <c r="N204" s="3"/>
       <c r="O204" s="44"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="44"/>
-      <c r="B205" s="53"/>
-      <c r="C205" s="53"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="50"/>
       <c r="D205" s="44"/>
       <c r="E205" s="44"/>
       <c r="F205" s="44"/>
       <c r="G205" s="44"/>
       <c r="H205" s="4"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="53"/>
+      <c r="J205" s="50"/>
       <c r="K205" s="44"/>
-      <c r="L205" s="50"/>
+      <c r="L205" s="47"/>
       <c r="M205" s="4"/>
       <c r="N205" s="3"/>
       <c r="O205" s="44"/>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="44"/>
-      <c r="B206" s="53"/>
-      <c r="C206" s="53"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="50"/>
       <c r="D206" s="44"/>
       <c r="E206" s="44"/>
       <c r="F206" s="44"/>
       <c r="G206" s="44"/>
       <c r="H206" s="4"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="53"/>
+      <c r="J206" s="50"/>
       <c r="K206" s="44"/>
-      <c r="L206" s="50"/>
+      <c r="L206" s="47"/>
       <c r="M206" s="4"/>
       <c r="N206" s="3"/>
       <c r="O206" s="44"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="44"/>
-      <c r="B207" s="53"/>
-      <c r="C207" s="53"/>
+      <c r="B207" s="50"/>
+      <c r="C207" s="50"/>
       <c r="D207" s="44"/>
       <c r="E207" s="44"/>
       <c r="F207" s="44"/>
       <c r="G207" s="44"/>
       <c r="H207" s="4"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="53"/>
+      <c r="J207" s="50"/>
       <c r="K207" s="44"/>
-      <c r="L207" s="50"/>
+      <c r="L207" s="47"/>
       <c r="M207" s="4"/>
       <c r="N207" s="3"/>
       <c r="O207" s="44"/>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="44"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
+      <c r="B208" s="50"/>
+      <c r="C208" s="50"/>
       <c r="D208" s="44"/>
       <c r="E208" s="44"/>
       <c r="F208" s="44"/>
       <c r="G208" s="44"/>
       <c r="H208" s="4"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="53"/>
+      <c r="J208" s="50"/>
       <c r="K208" s="44"/>
-      <c r="L208" s="50"/>
+      <c r="L208" s="47"/>
       <c r="M208" s="4"/>
       <c r="N208" s="3"/>
       <c r="O208" s="44"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="44"/>
-      <c r="B209" s="53"/>
-      <c r="C209" s="53"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="50"/>
       <c r="D209" s="44"/>
       <c r="E209" s="44"/>
       <c r="F209" s="44"/>
       <c r="G209" s="44"/>
       <c r="H209" s="4"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="53"/>
+      <c r="J209" s="50"/>
       <c r="K209" s="44"/>
-      <c r="L209" s="50"/>
+      <c r="L209" s="47"/>
       <c r="M209" s="4"/>
       <c r="N209" s="3"/>
       <c r="O209" s="44"/>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="44"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="53"/>
+      <c r="B210" s="50"/>
+      <c r="C210" s="50"/>
       <c r="D210" s="44"/>
       <c r="E210" s="44"/>
       <c r="F210" s="44"/>
       <c r="G210" s="44"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="53"/>
+      <c r="J210" s="50"/>
       <c r="K210" s="44"/>
-      <c r="L210" s="50"/>
+      <c r="L210" s="47"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
       <c r="O210" s="44"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="44"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="53"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="50"/>
       <c r="D211" s="44"/>
       <c r="E211" s="44"/>
       <c r="F211" s="44"/>
@@ -10833,34 +10832,34 @@
       <c r="I211" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J211" s="53"/>
+      <c r="J211" s="50"/>
       <c r="K211" s="44"/>
-      <c r="L211" s="50"/>
+      <c r="L211" s="47"/>
       <c r="M211" s="4"/>
       <c r="N211" s="7"/>
       <c r="O211" s="44"/>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="44"/>
-      <c r="B212" s="53"/>
-      <c r="C212" s="53"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="50"/>
       <c r="D212" s="44"/>
       <c r="E212" s="44"/>
       <c r="F212" s="44"/>
       <c r="G212" s="44"/>
       <c r="H212" s="4"/>
       <c r="I212" s="3"/>
-      <c r="J212" s="53"/>
+      <c r="J212" s="50"/>
       <c r="K212" s="44"/>
-      <c r="L212" s="50"/>
+      <c r="L212" s="47"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
       <c r="O212" s="44"/>
     </row>
     <row r="213" spans="1:15" ht="41.4">
       <c r="A213" s="44"/>
-      <c r="B213" s="53"/>
-      <c r="C213" s="53"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="50"/>
       <c r="D213" s="44"/>
       <c r="E213" s="44"/>
       <c r="F213" s="44"/>
@@ -10869,204 +10868,204 @@
       <c r="I213" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J213" s="53"/>
+      <c r="J213" s="50"/>
       <c r="K213" s="44"/>
-      <c r="L213" s="50"/>
+      <c r="L213" s="47"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
       <c r="O213" s="44"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="44"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="53"/>
+      <c r="B214" s="50"/>
+      <c r="C214" s="50"/>
       <c r="D214" s="44"/>
       <c r="E214" s="44"/>
       <c r="F214" s="44"/>
       <c r="G214" s="44"/>
       <c r="H214" s="4"/>
       <c r="I214" s="7"/>
-      <c r="J214" s="53"/>
+      <c r="J214" s="50"/>
       <c r="K214" s="44"/>
-      <c r="L214" s="50"/>
+      <c r="L214" s="47"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
       <c r="O214" s="44"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="44"/>
-      <c r="B215" s="53"/>
-      <c r="C215" s="53"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="50"/>
       <c r="D215" s="44"/>
       <c r="E215" s="44"/>
       <c r="F215" s="44"/>
       <c r="G215" s="44"/>
       <c r="H215" s="4"/>
       <c r="I215" s="3"/>
-      <c r="J215" s="53"/>
+      <c r="J215" s="50"/>
       <c r="K215" s="44"/>
-      <c r="L215" s="50"/>
+      <c r="L215" s="47"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
       <c r="O215" s="44"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="44"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="53"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="50"/>
       <c r="D216" s="44"/>
       <c r="E216" s="44"/>
       <c r="F216" s="44"/>
       <c r="G216" s="44"/>
       <c r="H216" s="4"/>
       <c r="I216" s="3"/>
-      <c r="J216" s="53"/>
+      <c r="J216" s="50"/>
       <c r="K216" s="44"/>
-      <c r="L216" s="50"/>
+      <c r="L216" s="47"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
       <c r="O216" s="44"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="44"/>
-      <c r="B217" s="53"/>
-      <c r="C217" s="53"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="50"/>
       <c r="D217" s="44"/>
       <c r="E217" s="44"/>
       <c r="F217" s="44"/>
       <c r="G217" s="44"/>
       <c r="H217" s="4"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="53"/>
+      <c r="J217" s="50"/>
       <c r="K217" s="44"/>
-      <c r="L217" s="50"/>
+      <c r="L217" s="47"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
       <c r="O217" s="44"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="44"/>
-      <c r="B218" s="53"/>
-      <c r="C218" s="53"/>
+      <c r="B218" s="50"/>
+      <c r="C218" s="50"/>
       <c r="D218" s="44"/>
       <c r="E218" s="44"/>
       <c r="F218" s="44"/>
       <c r="G218" s="44"/>
       <c r="H218" s="4"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="53"/>
+      <c r="J218" s="50"/>
       <c r="K218" s="44"/>
-      <c r="L218" s="50"/>
+      <c r="L218" s="47"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
       <c r="O218" s="44"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="44"/>
-      <c r="B219" s="53"/>
-      <c r="C219" s="53"/>
+      <c r="B219" s="50"/>
+      <c r="C219" s="50"/>
       <c r="D219" s="44"/>
       <c r="E219" s="44"/>
       <c r="F219" s="44"/>
       <c r="G219" s="44"/>
       <c r="H219" s="4"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="53"/>
+      <c r="J219" s="50"/>
       <c r="K219" s="44"/>
-      <c r="L219" s="50"/>
+      <c r="L219" s="47"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
       <c r="O219" s="44"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="44"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="50"/>
       <c r="D220" s="44"/>
       <c r="E220" s="44"/>
       <c r="F220" s="44"/>
       <c r="G220" s="44"/>
       <c r="H220" s="4"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="53"/>
+      <c r="J220" s="50"/>
       <c r="K220" s="44"/>
-      <c r="L220" s="50"/>
+      <c r="L220" s="47"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
       <c r="O220" s="44"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="44"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="50"/>
       <c r="D221" s="44"/>
       <c r="E221" s="44"/>
       <c r="F221" s="44"/>
       <c r="G221" s="44"/>
       <c r="H221" s="4"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="53"/>
+      <c r="J221" s="50"/>
       <c r="K221" s="44"/>
-      <c r="L221" s="50"/>
+      <c r="L221" s="47"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
       <c r="O221" s="44"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="44"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="53"/>
+      <c r="B222" s="50"/>
+      <c r="C222" s="50"/>
       <c r="D222" s="44"/>
       <c r="E222" s="44"/>
       <c r="F222" s="44"/>
       <c r="G222" s="44"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
-      <c r="J222" s="53"/>
+      <c r="J222" s="50"/>
       <c r="K222" s="44"/>
-      <c r="L222" s="50"/>
+      <c r="L222" s="47"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
       <c r="O222" s="44"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="44"/>
-      <c r="B223" s="53"/>
-      <c r="C223" s="53"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="50"/>
       <c r="D223" s="44"/>
       <c r="E223" s="44"/>
       <c r="F223" s="44"/>
       <c r="G223" s="44"/>
       <c r="H223" s="4"/>
       <c r="I223" s="7"/>
-      <c r="J223" s="53"/>
+      <c r="J223" s="50"/>
       <c r="K223" s="44"/>
-      <c r="L223" s="50"/>
+      <c r="L223" s="47"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
       <c r="O223" s="44"/>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="44"/>
-      <c r="B224" s="53"/>
-      <c r="C224" s="53"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="50"/>
       <c r="D224" s="44"/>
       <c r="E224" s="44"/>
       <c r="F224" s="44"/>
       <c r="G224" s="44"/>
       <c r="H224" s="4"/>
       <c r="I224" s="7"/>
-      <c r="J224" s="53"/>
+      <c r="J224" s="50"/>
       <c r="K224" s="44"/>
-      <c r="L224" s="50"/>
+      <c r="L224" s="47"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
       <c r="O224" s="44"/>
     </row>
     <row r="225" spans="1:15" ht="41.4">
       <c r="A225" s="44"/>
-      <c r="B225" s="53"/>
-      <c r="C225" s="53"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="50"/>
       <c r="D225" s="44"/>
       <c r="E225" s="44"/>
       <c r="F225" s="44"/>
@@ -11075,34 +11074,34 @@
       <c r="I225" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J225" s="53"/>
+      <c r="J225" s="50"/>
       <c r="K225" s="44"/>
-      <c r="L225" s="50"/>
+      <c r="L225" s="47"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
       <c r="O225" s="44"/>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="44"/>
-      <c r="B226" s="53"/>
-      <c r="C226" s="53"/>
+      <c r="B226" s="50"/>
+      <c r="C226" s="50"/>
       <c r="D226" s="44"/>
       <c r="E226" s="44"/>
       <c r="F226" s="44"/>
       <c r="G226" s="44"/>
       <c r="H226" s="4"/>
       <c r="I226" s="7"/>
-      <c r="J226" s="53"/>
+      <c r="J226" s="50"/>
       <c r="K226" s="44"/>
-      <c r="L226" s="50"/>
+      <c r="L226" s="47"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
       <c r="O226" s="44"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="44"/>
-      <c r="B227" s="53"/>
-      <c r="C227" s="53"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="50"/>
       <c r="D227" s="44"/>
       <c r="E227" s="44"/>
       <c r="F227" s="44"/>
@@ -11111,17 +11110,17 @@
       <c r="I227" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J227" s="53"/>
+      <c r="J227" s="50"/>
       <c r="K227" s="44"/>
-      <c r="L227" s="50"/>
+      <c r="L227" s="47"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
       <c r="O227" s="44"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="44"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="53"/>
+      <c r="B228" s="50"/>
+      <c r="C228" s="50"/>
       <c r="D228" s="44"/>
       <c r="E228" s="44"/>
       <c r="F228" s="44"/>
@@ -11130,17 +11129,17 @@
       <c r="I228" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J228" s="53"/>
+      <c r="J228" s="50"/>
       <c r="K228" s="44"/>
-      <c r="L228" s="50"/>
+      <c r="L228" s="47"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
       <c r="O228" s="44"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="44"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="53"/>
+      <c r="B229" s="50"/>
+      <c r="C229" s="50"/>
       <c r="D229" s="44"/>
       <c r="E229" s="44"/>
       <c r="F229" s="44"/>
@@ -11149,17 +11148,17 @@
       <c r="I229" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="J229" s="53"/>
+      <c r="J229" s="50"/>
       <c r="K229" s="44"/>
-      <c r="L229" s="50"/>
+      <c r="L229" s="47"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="44"/>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="44"/>
-      <c r="B230" s="53"/>
-      <c r="C230" s="53"/>
+      <c r="B230" s="50"/>
+      <c r="C230" s="50"/>
       <c r="D230" s="44"/>
       <c r="E230" s="44"/>
       <c r="F230" s="44"/>
@@ -11168,17 +11167,17 @@
       <c r="I230" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J230" s="53"/>
+      <c r="J230" s="50"/>
       <c r="K230" s="44"/>
-      <c r="L230" s="50"/>
+      <c r="L230" s="47"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="44"/>
     </row>
     <row r="231" spans="1:15" ht="27.6">
       <c r="A231" s="44"/>
-      <c r="B231" s="53"/>
-      <c r="C231" s="53"/>
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
       <c r="D231" s="44"/>
       <c r="E231" s="44"/>
       <c r="F231" s="44"/>
@@ -11187,17 +11186,17 @@
       <c r="I231" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J231" s="53"/>
+      <c r="J231" s="50"/>
       <c r="K231" s="44"/>
-      <c r="L231" s="50"/>
+      <c r="L231" s="47"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="44"/>
     </row>
     <row r="232" spans="1:15" ht="27.6">
       <c r="A232" s="44"/>
-      <c r="B232" s="53"/>
-      <c r="C232" s="53"/>
+      <c r="B232" s="50"/>
+      <c r="C232" s="50"/>
       <c r="D232" s="44"/>
       <c r="E232" s="44"/>
       <c r="F232" s="44"/>
@@ -11206,17 +11205,17 @@
       <c r="I232" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J232" s="53"/>
+      <c r="J232" s="50"/>
       <c r="K232" s="44"/>
-      <c r="L232" s="50"/>
+      <c r="L232" s="47"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
       <c r="O232" s="44"/>
     </row>
     <row r="233" spans="1:15" ht="27.6">
       <c r="A233" s="44"/>
-      <c r="B233" s="53"/>
-      <c r="C233" s="53"/>
+      <c r="B233" s="50"/>
+      <c r="C233" s="50"/>
       <c r="D233" s="44"/>
       <c r="E233" s="44"/>
       <c r="F233" s="44"/>
@@ -11225,893 +11224,893 @@
       <c r="I233" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="J233" s="53"/>
+      <c r="J233" s="50"/>
       <c r="K233" s="44"/>
-      <c r="L233" s="50"/>
+      <c r="L233" s="47"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
       <c r="O233" s="44"/>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="44"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="53"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="50"/>
       <c r="D234" s="44"/>
       <c r="E234" s="44"/>
       <c r="F234" s="44"/>
       <c r="G234" s="44"/>
       <c r="H234" s="4"/>
       <c r="I234" s="7"/>
-      <c r="J234" s="53"/>
+      <c r="J234" s="50"/>
       <c r="K234" s="44"/>
-      <c r="L234" s="50"/>
+      <c r="L234" s="47"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
       <c r="O234" s="44"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="44"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="53"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="50"/>
       <c r="D235" s="44"/>
       <c r="E235" s="44"/>
       <c r="F235" s="44"/>
       <c r="G235" s="44"/>
       <c r="H235" s="4"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="53"/>
+      <c r="J235" s="50"/>
       <c r="K235" s="44"/>
-      <c r="L235" s="50"/>
+      <c r="L235" s="47"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
       <c r="O235" s="44"/>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="44"/>
-      <c r="B236" s="53"/>
-      <c r="C236" s="53"/>
+      <c r="B236" s="50"/>
+      <c r="C236" s="50"/>
       <c r="D236" s="44"/>
       <c r="E236" s="44"/>
       <c r="F236" s="44"/>
       <c r="G236" s="44"/>
       <c r="H236" s="4"/>
       <c r="I236" s="3"/>
-      <c r="J236" s="53"/>
+      <c r="J236" s="50"/>
       <c r="K236" s="44"/>
-      <c r="L236" s="50"/>
+      <c r="L236" s="47"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
       <c r="O236" s="44"/>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="44"/>
-      <c r="B237" s="53"/>
-      <c r="C237" s="53"/>
+      <c r="B237" s="50"/>
+      <c r="C237" s="50"/>
       <c r="D237" s="44"/>
       <c r="E237" s="44"/>
       <c r="F237" s="44"/>
       <c r="G237" s="44"/>
       <c r="H237" s="4"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="53"/>
+      <c r="J237" s="50"/>
       <c r="K237" s="44"/>
-      <c r="L237" s="50"/>
+      <c r="L237" s="47"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
       <c r="O237" s="44"/>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="44"/>
-      <c r="B238" s="53"/>
-      <c r="C238" s="53"/>
+      <c r="B238" s="50"/>
+      <c r="C238" s="50"/>
       <c r="D238" s="44"/>
       <c r="E238" s="44"/>
       <c r="F238" s="44"/>
       <c r="G238" s="44"/>
       <c r="H238" s="4"/>
       <c r="I238" s="3"/>
-      <c r="J238" s="53"/>
+      <c r="J238" s="50"/>
       <c r="K238" s="44"/>
-      <c r="L238" s="50"/>
+      <c r="L238" s="47"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
       <c r="O238" s="44"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="44"/>
-      <c r="B239" s="53"/>
-      <c r="C239" s="53"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="50"/>
       <c r="D239" s="44"/>
       <c r="E239" s="44"/>
       <c r="F239" s="44"/>
       <c r="G239" s="44"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
-      <c r="J239" s="53"/>
+      <c r="J239" s="50"/>
       <c r="K239" s="44"/>
-      <c r="L239" s="50"/>
+      <c r="L239" s="47"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
       <c r="O239" s="44"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="44"/>
-      <c r="B240" s="53"/>
-      <c r="C240" s="53"/>
+      <c r="B240" s="50"/>
+      <c r="C240" s="50"/>
       <c r="D240" s="44"/>
       <c r="E240" s="44"/>
       <c r="F240" s="44"/>
       <c r="G240" s="44"/>
       <c r="H240" s="4"/>
       <c r="I240" s="3"/>
-      <c r="J240" s="53"/>
+      <c r="J240" s="50"/>
       <c r="K240" s="44"/>
-      <c r="L240" s="50"/>
+      <c r="L240" s="47"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
       <c r="O240" s="44"/>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="44"/>
-      <c r="B241" s="53"/>
-      <c r="C241" s="53"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="50"/>
       <c r="D241" s="44"/>
       <c r="E241" s="44"/>
       <c r="F241" s="44"/>
       <c r="G241" s="44"/>
       <c r="H241" s="4"/>
       <c r="I241" s="3"/>
-      <c r="J241" s="53"/>
+      <c r="J241" s="50"/>
       <c r="K241" s="44"/>
-      <c r="L241" s="50"/>
+      <c r="L241" s="47"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
       <c r="O241" s="44"/>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="44"/>
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
+      <c r="B242" s="50"/>
+      <c r="C242" s="50"/>
       <c r="D242" s="44"/>
       <c r="E242" s="44"/>
       <c r="F242" s="44"/>
       <c r="G242" s="44"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
-      <c r="J242" s="53"/>
+      <c r="J242" s="50"/>
       <c r="K242" s="44"/>
-      <c r="L242" s="50"/>
+      <c r="L242" s="47"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
       <c r="O242" s="44"/>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="44"/>
-      <c r="B243" s="53"/>
-      <c r="C243" s="53"/>
+      <c r="B243" s="50"/>
+      <c r="C243" s="50"/>
       <c r="D243" s="44"/>
       <c r="E243" s="44"/>
       <c r="F243" s="44"/>
       <c r="G243" s="44"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="53"/>
+      <c r="J243" s="50"/>
       <c r="K243" s="44"/>
-      <c r="L243" s="50"/>
+      <c r="L243" s="47"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
       <c r="O243" s="44"/>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="44"/>
-      <c r="B244" s="53"/>
-      <c r="C244" s="53"/>
+      <c r="B244" s="50"/>
+      <c r="C244" s="50"/>
       <c r="D244" s="44"/>
       <c r="E244" s="44"/>
       <c r="F244" s="44"/>
       <c r="G244" s="44"/>
       <c r="H244" s="4"/>
       <c r="I244" s="3"/>
-      <c r="J244" s="53"/>
+      <c r="J244" s="50"/>
       <c r="K244" s="44"/>
-      <c r="L244" s="50"/>
+      <c r="L244" s="47"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
       <c r="O244" s="44"/>
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="44"/>
-      <c r="B245" s="53"/>
-      <c r="C245" s="53"/>
+      <c r="B245" s="50"/>
+      <c r="C245" s="50"/>
       <c r="D245" s="44"/>
       <c r="E245" s="44"/>
       <c r="F245" s="44"/>
       <c r="G245" s="44"/>
       <c r="H245" s="4"/>
       <c r="I245" s="3"/>
-      <c r="J245" s="53"/>
+      <c r="J245" s="50"/>
       <c r="K245" s="44"/>
-      <c r="L245" s="50"/>
+      <c r="L245" s="47"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
       <c r="O245" s="44"/>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="44"/>
-      <c r="B246" s="53"/>
-      <c r="C246" s="53"/>
+      <c r="B246" s="50"/>
+      <c r="C246" s="50"/>
       <c r="D246" s="44"/>
       <c r="E246" s="44"/>
       <c r="F246" s="44"/>
       <c r="G246" s="44"/>
       <c r="H246" s="4"/>
       <c r="I246" s="3"/>
-      <c r="J246" s="53"/>
+      <c r="J246" s="50"/>
       <c r="K246" s="44"/>
-      <c r="L246" s="50"/>
+      <c r="L246" s="47"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
       <c r="O246" s="44"/>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="44"/>
-      <c r="B247" s="53"/>
-      <c r="C247" s="53"/>
+      <c r="B247" s="50"/>
+      <c r="C247" s="50"/>
       <c r="D247" s="44"/>
       <c r="E247" s="44"/>
       <c r="F247" s="44"/>
       <c r="G247" s="44"/>
       <c r="H247" s="4"/>
       <c r="I247" s="3"/>
-      <c r="J247" s="53"/>
+      <c r="J247" s="50"/>
       <c r="K247" s="44"/>
-      <c r="L247" s="50"/>
+      <c r="L247" s="47"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
       <c r="O247" s="44"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="44"/>
-      <c r="B248" s="53"/>
-      <c r="C248" s="53"/>
+      <c r="B248" s="50"/>
+      <c r="C248" s="50"/>
       <c r="D248" s="44"/>
       <c r="E248" s="44"/>
       <c r="F248" s="44"/>
       <c r="G248" s="44"/>
       <c r="H248" s="4"/>
       <c r="I248" s="3"/>
-      <c r="J248" s="53"/>
+      <c r="J248" s="50"/>
       <c r="K248" s="44"/>
-      <c r="L248" s="50"/>
+      <c r="L248" s="47"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
       <c r="O248" s="44"/>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="44"/>
-      <c r="B249" s="53"/>
-      <c r="C249" s="53"/>
+      <c r="B249" s="50"/>
+      <c r="C249" s="50"/>
       <c r="D249" s="44"/>
       <c r="E249" s="44"/>
       <c r="F249" s="44"/>
       <c r="G249" s="44"/>
       <c r="H249" s="4"/>
       <c r="I249" s="3"/>
-      <c r="J249" s="53"/>
+      <c r="J249" s="50"/>
       <c r="K249" s="44"/>
-      <c r="L249" s="50"/>
+      <c r="L249" s="47"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
       <c r="O249" s="44"/>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="44"/>
-      <c r="B250" s="53"/>
-      <c r="C250" s="53"/>
+      <c r="B250" s="50"/>
+      <c r="C250" s="50"/>
       <c r="D250" s="44"/>
       <c r="E250" s="44"/>
       <c r="F250" s="44"/>
       <c r="G250" s="44"/>
       <c r="H250" s="4"/>
       <c r="I250" s="3"/>
-      <c r="J250" s="53"/>
+      <c r="J250" s="50"/>
       <c r="K250" s="44"/>
-      <c r="L250" s="50"/>
+      <c r="L250" s="47"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
       <c r="O250" s="44"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="44"/>
-      <c r="B251" s="53"/>
-      <c r="C251" s="53"/>
+      <c r="B251" s="50"/>
+      <c r="C251" s="50"/>
       <c r="D251" s="44"/>
       <c r="E251" s="44"/>
       <c r="F251" s="44"/>
       <c r="G251" s="44"/>
       <c r="H251" s="4"/>
       <c r="I251" s="3"/>
-      <c r="J251" s="53"/>
+      <c r="J251" s="50"/>
       <c r="K251" s="44"/>
-      <c r="L251" s="50"/>
+      <c r="L251" s="47"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
       <c r="O251" s="44"/>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="44"/>
-      <c r="B252" s="53"/>
-      <c r="C252" s="53"/>
+      <c r="B252" s="50"/>
+      <c r="C252" s="50"/>
       <c r="D252" s="44"/>
       <c r="E252" s="44"/>
       <c r="F252" s="44"/>
       <c r="G252" s="44"/>
       <c r="H252" s="4"/>
       <c r="I252" s="3"/>
-      <c r="J252" s="53"/>
+      <c r="J252" s="50"/>
       <c r="K252" s="44"/>
-      <c r="L252" s="50"/>
+      <c r="L252" s="47"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
       <c r="O252" s="44"/>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="44"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="53"/>
+      <c r="B253" s="50"/>
+      <c r="C253" s="50"/>
       <c r="D253" s="44"/>
       <c r="E253" s="44"/>
       <c r="F253" s="44"/>
       <c r="G253" s="44"/>
       <c r="H253" s="4"/>
       <c r="I253" s="3"/>
-      <c r="J253" s="53"/>
+      <c r="J253" s="50"/>
       <c r="K253" s="44"/>
-      <c r="L253" s="50"/>
+      <c r="L253" s="47"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
       <c r="O253" s="44"/>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="44"/>
-      <c r="B254" s="53"/>
-      <c r="C254" s="53"/>
+      <c r="B254" s="50"/>
+      <c r="C254" s="50"/>
       <c r="D254" s="44"/>
       <c r="E254" s="44"/>
       <c r="F254" s="44"/>
       <c r="G254" s="44"/>
       <c r="H254" s="4"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="53"/>
+      <c r="J254" s="50"/>
       <c r="K254" s="44"/>
-      <c r="L254" s="50"/>
+      <c r="L254" s="47"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
       <c r="O254" s="44"/>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="44"/>
-      <c r="B255" s="53"/>
-      <c r="C255" s="53"/>
+      <c r="B255" s="50"/>
+      <c r="C255" s="50"/>
       <c r="D255" s="44"/>
       <c r="E255" s="44"/>
       <c r="F255" s="44"/>
       <c r="G255" s="44"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
-      <c r="J255" s="53"/>
+      <c r="J255" s="50"/>
       <c r="K255" s="44"/>
-      <c r="L255" s="50"/>
+      <c r="L255" s="47"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
       <c r="O255" s="44"/>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="44"/>
-      <c r="B256" s="53"/>
-      <c r="C256" s="53"/>
+      <c r="B256" s="50"/>
+      <c r="C256" s="50"/>
       <c r="D256" s="44"/>
       <c r="E256" s="44"/>
       <c r="F256" s="44"/>
       <c r="G256" s="44"/>
       <c r="H256" s="4"/>
       <c r="I256" s="3"/>
-      <c r="J256" s="53"/>
+      <c r="J256" s="50"/>
       <c r="K256" s="44"/>
-      <c r="L256" s="50"/>
+      <c r="L256" s="47"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
       <c r="O256" s="44"/>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="44"/>
-      <c r="B257" s="53"/>
-      <c r="C257" s="53"/>
+      <c r="B257" s="50"/>
+      <c r="C257" s="50"/>
       <c r="D257" s="44"/>
       <c r="E257" s="44"/>
       <c r="F257" s="44"/>
       <c r="G257" s="44"/>
       <c r="H257" s="4"/>
       <c r="I257" s="3"/>
-      <c r="J257" s="53"/>
+      <c r="J257" s="50"/>
       <c r="K257" s="44"/>
-      <c r="L257" s="50"/>
+      <c r="L257" s="47"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
       <c r="O257" s="44"/>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="44"/>
-      <c r="B258" s="53"/>
-      <c r="C258" s="53"/>
+      <c r="B258" s="50"/>
+      <c r="C258" s="50"/>
       <c r="D258" s="44"/>
       <c r="E258" s="44"/>
       <c r="F258" s="44"/>
       <c r="G258" s="44"/>
       <c r="H258" s="4"/>
       <c r="I258" s="3"/>
-      <c r="J258" s="53"/>
+      <c r="J258" s="50"/>
       <c r="K258" s="44"/>
-      <c r="L258" s="50"/>
+      <c r="L258" s="47"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
       <c r="O258" s="44"/>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="44"/>
-      <c r="B259" s="53"/>
-      <c r="C259" s="53"/>
+      <c r="B259" s="50"/>
+      <c r="C259" s="50"/>
       <c r="D259" s="44"/>
       <c r="E259" s="44"/>
       <c r="F259" s="44"/>
       <c r="G259" s="44"/>
       <c r="H259" s="4"/>
       <c r="I259" s="3"/>
-      <c r="J259" s="53"/>
+      <c r="J259" s="50"/>
       <c r="K259" s="44"/>
-      <c r="L259" s="50"/>
+      <c r="L259" s="47"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
       <c r="O259" s="44"/>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="44"/>
-      <c r="B260" s="53"/>
-      <c r="C260" s="53"/>
+      <c r="B260" s="50"/>
+      <c r="C260" s="50"/>
       <c r="D260" s="44"/>
       <c r="E260" s="44"/>
       <c r="F260" s="44"/>
       <c r="G260" s="44"/>
       <c r="H260" s="4"/>
       <c r="I260" s="3"/>
-      <c r="J260" s="53"/>
+      <c r="J260" s="50"/>
       <c r="K260" s="44"/>
-      <c r="L260" s="50"/>
+      <c r="L260" s="47"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
       <c r="O260" s="44"/>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="44"/>
-      <c r="B261" s="53"/>
-      <c r="C261" s="53"/>
+      <c r="B261" s="50"/>
+      <c r="C261" s="50"/>
       <c r="D261" s="44"/>
       <c r="E261" s="44"/>
       <c r="F261" s="44"/>
       <c r="G261" s="44"/>
       <c r="H261" s="4"/>
       <c r="I261" s="3"/>
-      <c r="J261" s="53"/>
+      <c r="J261" s="50"/>
       <c r="K261" s="44"/>
-      <c r="L261" s="50"/>
+      <c r="L261" s="47"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
       <c r="O261" s="44"/>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="44"/>
-      <c r="B262" s="53"/>
-      <c r="C262" s="53"/>
+      <c r="B262" s="50"/>
+      <c r="C262" s="50"/>
       <c r="D262" s="44"/>
       <c r="E262" s="44"/>
       <c r="F262" s="44"/>
       <c r="G262" s="44"/>
       <c r="H262" s="4"/>
       <c r="I262" s="3"/>
-      <c r="J262" s="53"/>
+      <c r="J262" s="50"/>
       <c r="K262" s="44"/>
-      <c r="L262" s="50"/>
+      <c r="L262" s="47"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
       <c r="O262" s="44"/>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="44"/>
-      <c r="B263" s="53"/>
-      <c r="C263" s="53"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="50"/>
       <c r="D263" s="44"/>
       <c r="E263" s="44"/>
       <c r="F263" s="44"/>
       <c r="G263" s="44"/>
       <c r="H263" s="4"/>
       <c r="I263" s="3"/>
-      <c r="J263" s="53"/>
+      <c r="J263" s="50"/>
       <c r="K263" s="44"/>
-      <c r="L263" s="50"/>
+      <c r="L263" s="47"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
       <c r="O263" s="44"/>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="44"/>
-      <c r="B264" s="53"/>
-      <c r="C264" s="53"/>
+      <c r="B264" s="50"/>
+      <c r="C264" s="50"/>
       <c r="D264" s="44"/>
       <c r="E264" s="44"/>
       <c r="F264" s="44"/>
       <c r="G264" s="44"/>
       <c r="H264" s="4"/>
       <c r="I264" s="3"/>
-      <c r="J264" s="53"/>
+      <c r="J264" s="50"/>
       <c r="K264" s="44"/>
-      <c r="L264" s="50"/>
+      <c r="L264" s="47"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
       <c r="O264" s="44"/>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="44"/>
-      <c r="B265" s="53"/>
-      <c r="C265" s="53"/>
+      <c r="B265" s="50"/>
+      <c r="C265" s="50"/>
       <c r="D265" s="44"/>
       <c r="E265" s="44"/>
       <c r="F265" s="44"/>
       <c r="G265" s="44"/>
       <c r="H265" s="4"/>
       <c r="I265" s="3"/>
-      <c r="J265" s="53"/>
+      <c r="J265" s="50"/>
       <c r="K265" s="44"/>
-      <c r="L265" s="50"/>
+      <c r="L265" s="47"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
       <c r="O265" s="44"/>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="44"/>
-      <c r="B266" s="53"/>
-      <c r="C266" s="53"/>
+      <c r="B266" s="50"/>
+      <c r="C266" s="50"/>
       <c r="D266" s="44"/>
       <c r="E266" s="44"/>
       <c r="F266" s="44"/>
       <c r="G266" s="44"/>
       <c r="H266" s="4"/>
       <c r="I266" s="3"/>
-      <c r="J266" s="53"/>
+      <c r="J266" s="50"/>
       <c r="K266" s="44"/>
-      <c r="L266" s="50"/>
+      <c r="L266" s="47"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
       <c r="O266" s="44"/>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="44"/>
-      <c r="B267" s="53"/>
-      <c r="C267" s="53"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="50"/>
       <c r="D267" s="44"/>
       <c r="E267" s="44"/>
       <c r="F267" s="44"/>
       <c r="G267" s="44"/>
       <c r="H267" s="4"/>
       <c r="I267" s="3"/>
-      <c r="J267" s="53"/>
+      <c r="J267" s="50"/>
       <c r="K267" s="44"/>
-      <c r="L267" s="50"/>
+      <c r="L267" s="47"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
       <c r="O267" s="44"/>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="44"/>
-      <c r="B268" s="53"/>
-      <c r="C268" s="53"/>
+      <c r="B268" s="50"/>
+      <c r="C268" s="50"/>
       <c r="D268" s="44"/>
       <c r="E268" s="44"/>
       <c r="F268" s="44"/>
       <c r="G268" s="44"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
-      <c r="J268" s="53"/>
+      <c r="J268" s="50"/>
       <c r="K268" s="44"/>
-      <c r="L268" s="50"/>
+      <c r="L268" s="47"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
       <c r="O268" s="44"/>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="44"/>
-      <c r="B269" s="53"/>
-      <c r="C269" s="53"/>
+      <c r="B269" s="50"/>
+      <c r="C269" s="50"/>
       <c r="D269" s="44"/>
       <c r="E269" s="44"/>
       <c r="F269" s="44"/>
       <c r="G269" s="44"/>
       <c r="H269" s="4"/>
       <c r="I269" s="3"/>
-      <c r="J269" s="53"/>
+      <c r="J269" s="50"/>
       <c r="K269" s="44"/>
-      <c r="L269" s="50"/>
+      <c r="L269" s="47"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
       <c r="O269" s="44"/>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="44"/>
-      <c r="B270" s="53"/>
-      <c r="C270" s="53"/>
+      <c r="B270" s="50"/>
+      <c r="C270" s="50"/>
       <c r="D270" s="44"/>
       <c r="E270" s="44"/>
       <c r="F270" s="44"/>
       <c r="G270" s="44"/>
       <c r="H270" s="4"/>
       <c r="I270" s="3"/>
-      <c r="J270" s="53"/>
+      <c r="J270" s="50"/>
       <c r="K270" s="44"/>
-      <c r="L270" s="50"/>
+      <c r="L270" s="47"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
       <c r="O270" s="44"/>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="44"/>
-      <c r="B271" s="53"/>
-      <c r="C271" s="53"/>
+      <c r="B271" s="50"/>
+      <c r="C271" s="50"/>
       <c r="D271" s="44"/>
       <c r="E271" s="44"/>
       <c r="F271" s="44"/>
       <c r="G271" s="44"/>
       <c r="H271" s="4"/>
       <c r="I271" s="3"/>
-      <c r="J271" s="53"/>
+      <c r="J271" s="50"/>
       <c r="K271" s="44"/>
-      <c r="L271" s="50"/>
+      <c r="L271" s="47"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
       <c r="O271" s="44"/>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="44"/>
-      <c r="B272" s="53"/>
-      <c r="C272" s="53"/>
+      <c r="B272" s="50"/>
+      <c r="C272" s="50"/>
       <c r="D272" s="44"/>
       <c r="E272" s="44"/>
       <c r="F272" s="44"/>
       <c r="G272" s="44"/>
       <c r="H272" s="4"/>
       <c r="I272" s="3"/>
-      <c r="J272" s="53"/>
+      <c r="J272" s="50"/>
       <c r="K272" s="44"/>
-      <c r="L272" s="50"/>
+      <c r="L272" s="47"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
       <c r="O272" s="44"/>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="44"/>
-      <c r="B273" s="53"/>
-      <c r="C273" s="53"/>
+      <c r="B273" s="50"/>
+      <c r="C273" s="50"/>
       <c r="D273" s="44"/>
       <c r="E273" s="44"/>
       <c r="F273" s="44"/>
       <c r="G273" s="44"/>
       <c r="H273" s="4"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="53"/>
+      <c r="J273" s="50"/>
       <c r="K273" s="44"/>
-      <c r="L273" s="50"/>
+      <c r="L273" s="47"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
       <c r="O273" s="44"/>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="44"/>
-      <c r="B274" s="53"/>
-      <c r="C274" s="53"/>
+      <c r="B274" s="50"/>
+      <c r="C274" s="50"/>
       <c r="D274" s="44"/>
       <c r="E274" s="44"/>
       <c r="F274" s="44"/>
       <c r="G274" s="44"/>
       <c r="H274" s="4"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="53"/>
+      <c r="J274" s="50"/>
       <c r="K274" s="44"/>
-      <c r="L274" s="50"/>
+      <c r="L274" s="47"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
       <c r="O274" s="44"/>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="44"/>
-      <c r="B275" s="53"/>
-      <c r="C275" s="53"/>
+      <c r="B275" s="50"/>
+      <c r="C275" s="50"/>
       <c r="D275" s="44"/>
       <c r="E275" s="44"/>
       <c r="F275" s="44"/>
       <c r="G275" s="44"/>
       <c r="H275" s="4"/>
       <c r="I275" s="3"/>
-      <c r="J275" s="53"/>
+      <c r="J275" s="50"/>
       <c r="K275" s="44"/>
-      <c r="L275" s="50"/>
+      <c r="L275" s="47"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
       <c r="O275" s="44"/>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="44"/>
-      <c r="B276" s="53"/>
-      <c r="C276" s="53"/>
+      <c r="B276" s="50"/>
+      <c r="C276" s="50"/>
       <c r="D276" s="44"/>
       <c r="E276" s="44"/>
       <c r="F276" s="44"/>
       <c r="G276" s="44"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
-      <c r="J276" s="53"/>
+      <c r="J276" s="50"/>
       <c r="K276" s="44"/>
-      <c r="L276" s="50"/>
+      <c r="L276" s="47"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
       <c r="O276" s="44"/>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="44"/>
-      <c r="B277" s="53"/>
-      <c r="C277" s="53"/>
+      <c r="B277" s="50"/>
+      <c r="C277" s="50"/>
       <c r="D277" s="44"/>
       <c r="E277" s="44"/>
       <c r="F277" s="44"/>
       <c r="G277" s="44"/>
       <c r="H277" s="4"/>
       <c r="I277" s="3"/>
-      <c r="J277" s="53"/>
+      <c r="J277" s="50"/>
       <c r="K277" s="44"/>
-      <c r="L277" s="50"/>
+      <c r="L277" s="47"/>
       <c r="M277" s="4"/>
       <c r="N277" s="4"/>
       <c r="O277" s="44"/>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="44"/>
-      <c r="B278" s="53"/>
-      <c r="C278" s="53"/>
+      <c r="B278" s="50"/>
+      <c r="C278" s="50"/>
       <c r="D278" s="44"/>
       <c r="E278" s="44"/>
       <c r="F278" s="44"/>
       <c r="G278" s="44"/>
       <c r="H278" s="4"/>
       <c r="I278" s="3"/>
-      <c r="J278" s="53"/>
+      <c r="J278" s="50"/>
       <c r="K278" s="44"/>
-      <c r="L278" s="50"/>
+      <c r="L278" s="47"/>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
       <c r="O278" s="44"/>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="44"/>
-      <c r="B279" s="53"/>
-      <c r="C279" s="53"/>
+      <c r="B279" s="50"/>
+      <c r="C279" s="50"/>
       <c r="D279" s="44"/>
       <c r="E279" s="44"/>
       <c r="F279" s="44"/>
       <c r="G279" s="44"/>
       <c r="H279" s="4"/>
       <c r="I279" s="3"/>
-      <c r="J279" s="53"/>
+      <c r="J279" s="50"/>
       <c r="K279" s="44"/>
-      <c r="L279" s="50"/>
+      <c r="L279" s="47"/>
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
       <c r="O279" s="44"/>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="44"/>
-      <c r="B280" s="53"/>
-      <c r="C280" s="53"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="50"/>
       <c r="D280" s="44"/>
       <c r="E280" s="44"/>
       <c r="F280" s="44"/>
       <c r="G280" s="44"/>
       <c r="H280" s="4"/>
       <c r="I280" s="3"/>
-      <c r="J280" s="53"/>
+      <c r="J280" s="50"/>
       <c r="K280" s="44"/>
-      <c r="L280" s="50"/>
+      <c r="L280" s="47"/>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
       <c r="O280" s="44"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="44"/>
-      <c r="B281" s="53"/>
-      <c r="C281" s="53"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="50"/>
       <c r="D281" s="44"/>
       <c r="E281" s="44"/>
       <c r="F281" s="44"/>
       <c r="G281" s="44"/>
       <c r="H281" s="4"/>
       <c r="I281" s="3"/>
-      <c r="J281" s="53"/>
+      <c r="J281" s="50"/>
       <c r="K281" s="44"/>
-      <c r="L281" s="50"/>
+      <c r="L281" s="47"/>
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
       <c r="O281" s="44"/>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="44"/>
-      <c r="B282" s="53"/>
-      <c r="C282" s="53"/>
+      <c r="B282" s="50"/>
+      <c r="C282" s="50"/>
       <c r="D282" s="44"/>
       <c r="E282" s="44"/>
       <c r="F282" s="44"/>
       <c r="G282" s="44"/>
       <c r="H282" s="4"/>
       <c r="I282" s="3"/>
-      <c r="J282" s="53"/>
+      <c r="J282" s="50"/>
       <c r="K282" s="44"/>
-      <c r="L282" s="50"/>
+      <c r="L282" s="47"/>
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
       <c r="O282" s="44"/>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="44"/>
-      <c r="B283" s="53"/>
-      <c r="C283" s="53"/>
+      <c r="B283" s="50"/>
+      <c r="C283" s="50"/>
       <c r="D283" s="44"/>
       <c r="E283" s="44"/>
       <c r="F283" s="44"/>
       <c r="G283" s="44"/>
       <c r="H283" s="4"/>
       <c r="I283" s="3"/>
-      <c r="J283" s="53"/>
+      <c r="J283" s="50"/>
       <c r="K283" s="44"/>
-      <c r="L283" s="50"/>
+      <c r="L283" s="47"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
       <c r="O283" s="44"/>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="44"/>
-      <c r="B284" s="53"/>
-      <c r="C284" s="53"/>
+      <c r="B284" s="50"/>
+      <c r="C284" s="50"/>
       <c r="D284" s="44"/>
       <c r="E284" s="44"/>
       <c r="F284" s="44"/>
       <c r="G284" s="44"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
-      <c r="J284" s="53"/>
+      <c r="J284" s="50"/>
       <c r="K284" s="44"/>
-      <c r="L284" s="50"/>
+      <c r="L284" s="47"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
       <c r="O284" s="44"/>
     </row>
     <row r="285" spans="1:15" ht="15" thickBot="1">
       <c r="A285" s="45"/>
-      <c r="B285" s="54"/>
-      <c r="C285" s="54"/>
+      <c r="B285" s="51"/>
+      <c r="C285" s="51"/>
       <c r="D285" s="45"/>
       <c r="E285" s="45"/>
       <c r="F285" s="45"/>
       <c r="G285" s="45"/>
       <c r="H285" s="5"/>
       <c r="I285" s="29"/>
-      <c r="J285" s="54"/>
+      <c r="J285" s="51"/>
       <c r="K285" s="45"/>
-      <c r="L285" s="51"/>
+      <c r="L285" s="48"/>
       <c r="M285" s="5"/>
       <c r="N285" s="5"/>
       <c r="O285" s="45"/>
@@ -12120,10 +12119,10 @@
       <c r="A286" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B286" s="49" t="s">
+      <c r="B286" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C286" s="52" t="s">
+      <c r="C286" s="49" t="s">
         <v>242</v>
       </c>
       <c r="D286" s="43" t="s">
@@ -12138,38 +12137,38 @@
       <c r="I286" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J286" s="52"/>
+      <c r="J286" s="49"/>
       <c r="K286" s="43"/>
-      <c r="L286" s="55" t="s">
+      <c r="L286" s="58" t="s">
         <v>247</v>
       </c>
       <c r="M286" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="N286" s="49"/>
+      <c r="N286" s="46"/>
       <c r="O286" s="43"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="44"/>
-      <c r="B287" s="50"/>
-      <c r="C287" s="53"/>
+      <c r="B287" s="47"/>
+      <c r="C287" s="50"/>
       <c r="D287" s="44"/>
       <c r="E287" s="44"/>
       <c r="F287" s="44"/>
       <c r="G287" s="44"/>
       <c r="H287" s="7"/>
       <c r="I287" s="3"/>
-      <c r="J287" s="53"/>
+      <c r="J287" s="50"/>
       <c r="K287" s="44"/>
-      <c r="L287" s="56"/>
+      <c r="L287" s="59"/>
       <c r="M287" s="7"/>
-      <c r="N287" s="50"/>
+      <c r="N287" s="47"/>
       <c r="O287" s="44"/>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="44"/>
-      <c r="B288" s="50"/>
-      <c r="C288" s="53"/>
+      <c r="B288" s="47"/>
+      <c r="C288" s="50"/>
       <c r="D288" s="44"/>
       <c r="E288" s="44"/>
       <c r="F288" s="44"/>
@@ -12180,346 +12179,346 @@
       <c r="I288" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J288" s="53"/>
+      <c r="J288" s="50"/>
       <c r="K288" s="44"/>
-      <c r="L288" s="56"/>
+      <c r="L288" s="59"/>
       <c r="M288" s="7"/>
-      <c r="N288" s="50"/>
+      <c r="N288" s="47"/>
       <c r="O288" s="44"/>
     </row>
     <row r="289" spans="1:15" ht="69">
       <c r="A289" s="44"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="53"/>
+      <c r="B289" s="47"/>
+      <c r="C289" s="50"/>
       <c r="D289" s="44"/>
       <c r="E289" s="44"/>
       <c r="F289" s="44"/>
       <c r="G289" s="44"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
-      <c r="J289" s="53"/>
+      <c r="J289" s="50"/>
       <c r="K289" s="44"/>
-      <c r="L289" s="56"/>
+      <c r="L289" s="59"/>
       <c r="M289" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="N289" s="50"/>
+      <c r="N289" s="47"/>
       <c r="O289" s="44"/>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="44"/>
-      <c r="B290" s="50"/>
-      <c r="C290" s="53"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="50"/>
       <c r="D290" s="44"/>
       <c r="E290" s="44"/>
       <c r="F290" s="44"/>
       <c r="G290" s="44"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
-      <c r="J290" s="53"/>
+      <c r="J290" s="50"/>
       <c r="K290" s="44"/>
-      <c r="L290" s="56"/>
+      <c r="L290" s="59"/>
       <c r="M290" s="4"/>
-      <c r="N290" s="50"/>
+      <c r="N290" s="47"/>
       <c r="O290" s="44"/>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="44"/>
-      <c r="B291" s="50"/>
-      <c r="C291" s="53"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="50"/>
       <c r="D291" s="44"/>
       <c r="E291" s="44"/>
       <c r="F291" s="44"/>
       <c r="G291" s="44"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
-      <c r="J291" s="53"/>
+      <c r="J291" s="50"/>
       <c r="K291" s="44"/>
-      <c r="L291" s="56"/>
+      <c r="L291" s="59"/>
       <c r="M291" s="4"/>
-      <c r="N291" s="50"/>
+      <c r="N291" s="47"/>
       <c r="O291" s="44"/>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="44"/>
-      <c r="B292" s="50"/>
-      <c r="C292" s="53"/>
+      <c r="B292" s="47"/>
+      <c r="C292" s="50"/>
       <c r="D292" s="44"/>
       <c r="E292" s="44"/>
       <c r="F292" s="44"/>
       <c r="G292" s="44"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
-      <c r="J292" s="53"/>
+      <c r="J292" s="50"/>
       <c r="K292" s="44"/>
-      <c r="L292" s="56"/>
+      <c r="L292" s="59"/>
       <c r="M292" s="4"/>
-      <c r="N292" s="50"/>
+      <c r="N292" s="47"/>
       <c r="O292" s="44"/>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="44"/>
-      <c r="B293" s="50"/>
-      <c r="C293" s="53"/>
+      <c r="B293" s="47"/>
+      <c r="C293" s="50"/>
       <c r="D293" s="44"/>
       <c r="E293" s="44"/>
       <c r="F293" s="44"/>
       <c r="G293" s="44"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
-      <c r="J293" s="53"/>
+      <c r="J293" s="50"/>
       <c r="K293" s="44"/>
-      <c r="L293" s="56"/>
+      <c r="L293" s="59"/>
       <c r="M293" s="4"/>
-      <c r="N293" s="50"/>
+      <c r="N293" s="47"/>
       <c r="O293" s="44"/>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="44"/>
-      <c r="B294" s="50"/>
-      <c r="C294" s="53"/>
+      <c r="B294" s="47"/>
+      <c r="C294" s="50"/>
       <c r="D294" s="44"/>
       <c r="E294" s="44"/>
       <c r="F294" s="44"/>
       <c r="G294" s="44"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
-      <c r="J294" s="53"/>
+      <c r="J294" s="50"/>
       <c r="K294" s="44"/>
-      <c r="L294" s="56"/>
+      <c r="L294" s="59"/>
       <c r="M294" s="4"/>
-      <c r="N294" s="50"/>
+      <c r="N294" s="47"/>
       <c r="O294" s="44"/>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="44"/>
-      <c r="B295" s="50"/>
-      <c r="C295" s="53"/>
+      <c r="B295" s="47"/>
+      <c r="C295" s="50"/>
       <c r="D295" s="44"/>
       <c r="E295" s="44"/>
       <c r="F295" s="44"/>
       <c r="G295" s="44"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
-      <c r="J295" s="53"/>
+      <c r="J295" s="50"/>
       <c r="K295" s="44"/>
-      <c r="L295" s="56"/>
+      <c r="L295" s="59"/>
       <c r="M295" s="4"/>
-      <c r="N295" s="50"/>
+      <c r="N295" s="47"/>
       <c r="O295" s="44"/>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="44"/>
-      <c r="B296" s="50"/>
-      <c r="C296" s="53"/>
+      <c r="B296" s="47"/>
+      <c r="C296" s="50"/>
       <c r="D296" s="44"/>
       <c r="E296" s="44"/>
       <c r="F296" s="44"/>
       <c r="G296" s="44"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
-      <c r="J296" s="53"/>
+      <c r="J296" s="50"/>
       <c r="K296" s="44"/>
-      <c r="L296" s="56"/>
+      <c r="L296" s="59"/>
       <c r="M296" s="4"/>
-      <c r="N296" s="50"/>
+      <c r="N296" s="47"/>
       <c r="O296" s="44"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="44"/>
-      <c r="B297" s="50"/>
-      <c r="C297" s="53"/>
+      <c r="B297" s="47"/>
+      <c r="C297" s="50"/>
       <c r="D297" s="44"/>
       <c r="E297" s="44"/>
       <c r="F297" s="44"/>
       <c r="G297" s="44"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
-      <c r="J297" s="53"/>
+      <c r="J297" s="50"/>
       <c r="K297" s="44"/>
-      <c r="L297" s="56"/>
+      <c r="L297" s="59"/>
       <c r="M297" s="4"/>
-      <c r="N297" s="50"/>
+      <c r="N297" s="47"/>
       <c r="O297" s="44"/>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="44"/>
-      <c r="B298" s="50"/>
-      <c r="C298" s="53"/>
+      <c r="B298" s="47"/>
+      <c r="C298" s="50"/>
       <c r="D298" s="44"/>
       <c r="E298" s="44"/>
       <c r="F298" s="44"/>
       <c r="G298" s="44"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
-      <c r="J298" s="53"/>
+      <c r="J298" s="50"/>
       <c r="K298" s="44"/>
-      <c r="L298" s="56"/>
+      <c r="L298" s="59"/>
       <c r="M298" s="4"/>
-      <c r="N298" s="50"/>
+      <c r="N298" s="47"/>
       <c r="O298" s="44"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="44"/>
-      <c r="B299" s="50"/>
-      <c r="C299" s="53"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="50"/>
       <c r="D299" s="44"/>
       <c r="E299" s="44"/>
       <c r="F299" s="44"/>
       <c r="G299" s="44"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
-      <c r="J299" s="53"/>
+      <c r="J299" s="50"/>
       <c r="K299" s="44"/>
-      <c r="L299" s="56"/>
+      <c r="L299" s="59"/>
       <c r="M299" s="4"/>
-      <c r="N299" s="50"/>
+      <c r="N299" s="47"/>
       <c r="O299" s="44"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="44"/>
-      <c r="B300" s="50"/>
-      <c r="C300" s="53"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="50"/>
       <c r="D300" s="44"/>
       <c r="E300" s="44"/>
       <c r="F300" s="44"/>
       <c r="G300" s="44"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
-      <c r="J300" s="53"/>
+      <c r="J300" s="50"/>
       <c r="K300" s="44"/>
-      <c r="L300" s="56"/>
+      <c r="L300" s="59"/>
       <c r="M300" s="4"/>
-      <c r="N300" s="50"/>
+      <c r="N300" s="47"/>
       <c r="O300" s="44"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="44"/>
-      <c r="B301" s="50"/>
-      <c r="C301" s="53"/>
+      <c r="B301" s="47"/>
+      <c r="C301" s="50"/>
       <c r="D301" s="44"/>
       <c r="E301" s="44"/>
       <c r="F301" s="44"/>
       <c r="G301" s="44"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
-      <c r="J301" s="53"/>
+      <c r="J301" s="50"/>
       <c r="K301" s="44"/>
-      <c r="L301" s="56"/>
+      <c r="L301" s="59"/>
       <c r="M301" s="4"/>
-      <c r="N301" s="50"/>
+      <c r="N301" s="47"/>
       <c r="O301" s="44"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="44"/>
-      <c r="B302" s="50"/>
-      <c r="C302" s="53"/>
+      <c r="B302" s="47"/>
+      <c r="C302" s="50"/>
       <c r="D302" s="44"/>
       <c r="E302" s="44"/>
       <c r="F302" s="44"/>
       <c r="G302" s="44"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
-      <c r="J302" s="53"/>
+      <c r="J302" s="50"/>
       <c r="K302" s="44"/>
-      <c r="L302" s="56"/>
+      <c r="L302" s="59"/>
       <c r="M302" s="4"/>
-      <c r="N302" s="50"/>
+      <c r="N302" s="47"/>
       <c r="O302" s="44"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="44"/>
-      <c r="B303" s="50"/>
-      <c r="C303" s="53"/>
+      <c r="B303" s="47"/>
+      <c r="C303" s="50"/>
       <c r="D303" s="44"/>
       <c r="E303" s="44"/>
       <c r="F303" s="44"/>
       <c r="G303" s="44"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
-      <c r="J303" s="53"/>
+      <c r="J303" s="50"/>
       <c r="K303" s="44"/>
-      <c r="L303" s="56"/>
+      <c r="L303" s="59"/>
       <c r="M303" s="4"/>
-      <c r="N303" s="50"/>
+      <c r="N303" s="47"/>
       <c r="O303" s="44"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="44"/>
-      <c r="B304" s="50"/>
-      <c r="C304" s="53"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="50"/>
       <c r="D304" s="44"/>
       <c r="E304" s="44"/>
       <c r="F304" s="44"/>
       <c r="G304" s="44"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
-      <c r="J304" s="53"/>
+      <c r="J304" s="50"/>
       <c r="K304" s="44"/>
-      <c r="L304" s="56"/>
+      <c r="L304" s="59"/>
       <c r="M304" s="4"/>
-      <c r="N304" s="50"/>
+      <c r="N304" s="47"/>
       <c r="O304" s="44"/>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="44"/>
-      <c r="B305" s="50"/>
-      <c r="C305" s="53"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="50"/>
       <c r="D305" s="44"/>
       <c r="E305" s="44"/>
       <c r="F305" s="44"/>
       <c r="G305" s="44"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
-      <c r="J305" s="53"/>
+      <c r="J305" s="50"/>
       <c r="K305" s="44"/>
-      <c r="L305" s="56"/>
+      <c r="L305" s="59"/>
       <c r="M305" s="4"/>
-      <c r="N305" s="50"/>
+      <c r="N305" s="47"/>
       <c r="O305" s="44"/>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="44"/>
-      <c r="B306" s="50"/>
-      <c r="C306" s="53"/>
+      <c r="B306" s="47"/>
+      <c r="C306" s="50"/>
       <c r="D306" s="44"/>
       <c r="E306" s="44"/>
       <c r="F306" s="44"/>
       <c r="G306" s="44"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
-      <c r="J306" s="53"/>
+      <c r="J306" s="50"/>
       <c r="K306" s="44"/>
-      <c r="L306" s="56"/>
+      <c r="L306" s="59"/>
       <c r="M306" s="4"/>
-      <c r="N306" s="50"/>
+      <c r="N306" s="47"/>
       <c r="O306" s="44"/>
     </row>
     <row r="307" spans="1:15" ht="15" thickBot="1">
       <c r="A307" s="45"/>
-      <c r="B307" s="51"/>
-      <c r="C307" s="54"/>
+      <c r="B307" s="48"/>
+      <c r="C307" s="51"/>
       <c r="D307" s="45"/>
       <c r="E307" s="45"/>
       <c r="F307" s="45"/>
       <c r="G307" s="45"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
-      <c r="J307" s="54"/>
+      <c r="J307" s="51"/>
       <c r="K307" s="45"/>
-      <c r="L307" s="57"/>
+      <c r="L307" s="60"/>
       <c r="M307" s="5"/>
-      <c r="N307" s="51"/>
+      <c r="N307" s="48"/>
       <c r="O307" s="45"/>
     </row>
     <row r="308" spans="1:15" ht="171.6">
       <c r="A308" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B308" s="49" t="s">
+      <c r="B308" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C308" s="52" t="s">
+      <c r="C308" s="49" t="s">
         <v>252</v>
       </c>
       <c r="D308" s="43"/>
@@ -12532,34 +12531,34 @@
       <c r="I308" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J308" s="52"/>
+      <c r="J308" s="49"/>
       <c r="K308" s="43"/>
-      <c r="L308" s="55"/>
-      <c r="M308" s="49"/>
+      <c r="L308" s="58"/>
+      <c r="M308" s="46"/>
       <c r="N308" s="43"/>
       <c r="O308" s="43"/>
     </row>
     <row r="309" spans="1:15" ht="15.6">
       <c r="A309" s="44"/>
-      <c r="B309" s="50"/>
-      <c r="C309" s="53"/>
+      <c r="B309" s="47"/>
+      <c r="C309" s="50"/>
       <c r="D309" s="44"/>
       <c r="E309" s="44"/>
       <c r="F309" s="44"/>
       <c r="G309" s="44"/>
       <c r="H309" s="23"/>
       <c r="I309" s="44"/>
-      <c r="J309" s="53"/>
+      <c r="J309" s="50"/>
       <c r="K309" s="44"/>
-      <c r="L309" s="56"/>
-      <c r="M309" s="50"/>
+      <c r="L309" s="59"/>
+      <c r="M309" s="47"/>
       <c r="N309" s="44"/>
       <c r="O309" s="44"/>
     </row>
     <row r="310" spans="1:15" ht="156">
       <c r="A310" s="44"/>
-      <c r="B310" s="50"/>
-      <c r="C310" s="53"/>
+      <c r="B310" s="47"/>
+      <c r="C310" s="50"/>
       <c r="D310" s="44"/>
       <c r="E310" s="44"/>
       <c r="F310" s="44"/>
@@ -12568,282 +12567,282 @@
         <v>254</v>
       </c>
       <c r="I310" s="44"/>
-      <c r="J310" s="53"/>
+      <c r="J310" s="50"/>
       <c r="K310" s="44"/>
-      <c r="L310" s="56"/>
-      <c r="M310" s="50"/>
+      <c r="L310" s="59"/>
+      <c r="M310" s="47"/>
       <c r="N310" s="44"/>
       <c r="O310" s="44"/>
     </row>
     <row r="311" spans="1:15" ht="15.6">
       <c r="A311" s="44"/>
-      <c r="B311" s="50"/>
-      <c r="C311" s="53"/>
+      <c r="B311" s="47"/>
+      <c r="C311" s="50"/>
       <c r="D311" s="44"/>
       <c r="E311" s="44"/>
       <c r="F311" s="44"/>
       <c r="G311" s="44"/>
       <c r="H311" s="23"/>
       <c r="I311" s="44"/>
-      <c r="J311" s="53"/>
+      <c r="J311" s="50"/>
       <c r="K311" s="44"/>
-      <c r="L311" s="56"/>
-      <c r="M311" s="50"/>
+      <c r="L311" s="59"/>
+      <c r="M311" s="47"/>
       <c r="N311" s="44"/>
       <c r="O311" s="44"/>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="44"/>
-      <c r="B312" s="50"/>
-      <c r="C312" s="53"/>
+      <c r="B312" s="47"/>
+      <c r="C312" s="50"/>
       <c r="D312" s="44"/>
       <c r="E312" s="44"/>
       <c r="F312" s="44"/>
       <c r="G312" s="44"/>
       <c r="H312" s="4"/>
       <c r="I312" s="44"/>
-      <c r="J312" s="53"/>
+      <c r="J312" s="50"/>
       <c r="K312" s="44"/>
-      <c r="L312" s="56"/>
-      <c r="M312" s="50"/>
+      <c r="L312" s="59"/>
+      <c r="M312" s="47"/>
       <c r="N312" s="44"/>
       <c r="O312" s="44"/>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="44"/>
-      <c r="B313" s="50"/>
-      <c r="C313" s="53"/>
+      <c r="B313" s="47"/>
+      <c r="C313" s="50"/>
       <c r="D313" s="44"/>
       <c r="E313" s="44"/>
       <c r="F313" s="44"/>
       <c r="G313" s="44"/>
       <c r="H313" s="4"/>
       <c r="I313" s="44"/>
-      <c r="J313" s="53"/>
+      <c r="J313" s="50"/>
       <c r="K313" s="44"/>
-      <c r="L313" s="56"/>
-      <c r="M313" s="50"/>
+      <c r="L313" s="59"/>
+      <c r="M313" s="47"/>
       <c r="N313" s="44"/>
       <c r="O313" s="44"/>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="44"/>
-      <c r="B314" s="50"/>
-      <c r="C314" s="53"/>
+      <c r="B314" s="47"/>
+      <c r="C314" s="50"/>
       <c r="D314" s="44"/>
       <c r="E314" s="44"/>
       <c r="F314" s="44"/>
       <c r="G314" s="44"/>
       <c r="H314" s="4"/>
       <c r="I314" s="44"/>
-      <c r="J314" s="53"/>
+      <c r="J314" s="50"/>
       <c r="K314" s="44"/>
-      <c r="L314" s="56"/>
-      <c r="M314" s="50"/>
+      <c r="L314" s="59"/>
+      <c r="M314" s="47"/>
       <c r="N314" s="44"/>
       <c r="O314" s="44"/>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="44"/>
-      <c r="B315" s="50"/>
-      <c r="C315" s="53"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="50"/>
       <c r="D315" s="44"/>
       <c r="E315" s="44"/>
       <c r="F315" s="44"/>
       <c r="G315" s="44"/>
       <c r="H315" s="4"/>
       <c r="I315" s="44"/>
-      <c r="J315" s="53"/>
+      <c r="J315" s="50"/>
       <c r="K315" s="44"/>
-      <c r="L315" s="56"/>
-      <c r="M315" s="50"/>
+      <c r="L315" s="59"/>
+      <c r="M315" s="47"/>
       <c r="N315" s="44"/>
       <c r="O315" s="44"/>
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="44"/>
-      <c r="B316" s="50"/>
-      <c r="C316" s="53"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="50"/>
       <c r="D316" s="44"/>
       <c r="E316" s="44"/>
       <c r="F316" s="44"/>
       <c r="G316" s="44"/>
       <c r="H316" s="4"/>
       <c r="I316" s="44"/>
-      <c r="J316" s="53"/>
+      <c r="J316" s="50"/>
       <c r="K316" s="44"/>
-      <c r="L316" s="56"/>
-      <c r="M316" s="50"/>
+      <c r="L316" s="59"/>
+      <c r="M316" s="47"/>
       <c r="N316" s="44"/>
       <c r="O316" s="44"/>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="44"/>
-      <c r="B317" s="50"/>
-      <c r="C317" s="53"/>
+      <c r="B317" s="47"/>
+      <c r="C317" s="50"/>
       <c r="D317" s="44"/>
       <c r="E317" s="44"/>
       <c r="F317" s="44"/>
       <c r="G317" s="44"/>
       <c r="H317" s="4"/>
       <c r="I317" s="44"/>
-      <c r="J317" s="53"/>
+      <c r="J317" s="50"/>
       <c r="K317" s="44"/>
-      <c r="L317" s="56"/>
-      <c r="M317" s="50"/>
+      <c r="L317" s="59"/>
+      <c r="M317" s="47"/>
       <c r="N317" s="44"/>
       <c r="O317" s="44"/>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="44"/>
-      <c r="B318" s="50"/>
-      <c r="C318" s="53"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="50"/>
       <c r="D318" s="44"/>
       <c r="E318" s="44"/>
       <c r="F318" s="44"/>
       <c r="G318" s="44"/>
       <c r="H318" s="4"/>
       <c r="I318" s="44"/>
-      <c r="J318" s="53"/>
+      <c r="J318" s="50"/>
       <c r="K318" s="44"/>
-      <c r="L318" s="56"/>
-      <c r="M318" s="50"/>
+      <c r="L318" s="59"/>
+      <c r="M318" s="47"/>
       <c r="N318" s="44"/>
       <c r="O318" s="44"/>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="44"/>
-      <c r="B319" s="50"/>
-      <c r="C319" s="53"/>
+      <c r="B319" s="47"/>
+      <c r="C319" s="50"/>
       <c r="D319" s="44"/>
       <c r="E319" s="44"/>
       <c r="F319" s="44"/>
       <c r="G319" s="44"/>
       <c r="H319" s="4"/>
       <c r="I319" s="44"/>
-      <c r="J319" s="53"/>
+      <c r="J319" s="50"/>
       <c r="K319" s="44"/>
-      <c r="L319" s="56"/>
-      <c r="M319" s="50"/>
+      <c r="L319" s="59"/>
+      <c r="M319" s="47"/>
       <c r="N319" s="44"/>
       <c r="O319" s="44"/>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="44"/>
-      <c r="B320" s="50"/>
-      <c r="C320" s="53"/>
+      <c r="B320" s="47"/>
+      <c r="C320" s="50"/>
       <c r="D320" s="44"/>
       <c r="E320" s="44"/>
       <c r="F320" s="44"/>
       <c r="G320" s="44"/>
       <c r="H320" s="4"/>
       <c r="I320" s="44"/>
-      <c r="J320" s="53"/>
+      <c r="J320" s="50"/>
       <c r="K320" s="44"/>
-      <c r="L320" s="56"/>
-      <c r="M320" s="50"/>
+      <c r="L320" s="59"/>
+      <c r="M320" s="47"/>
       <c r="N320" s="44"/>
       <c r="O320" s="44"/>
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="44"/>
-      <c r="B321" s="50"/>
-      <c r="C321" s="53"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="50"/>
       <c r="D321" s="44"/>
       <c r="E321" s="44"/>
       <c r="F321" s="44"/>
       <c r="G321" s="44"/>
       <c r="H321" s="4"/>
       <c r="I321" s="44"/>
-      <c r="J321" s="53"/>
+      <c r="J321" s="50"/>
       <c r="K321" s="44"/>
-      <c r="L321" s="56"/>
-      <c r="M321" s="50"/>
+      <c r="L321" s="59"/>
+      <c r="M321" s="47"/>
       <c r="N321" s="44"/>
       <c r="O321" s="44"/>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="44"/>
-      <c r="B322" s="50"/>
-      <c r="C322" s="53"/>
+      <c r="B322" s="47"/>
+      <c r="C322" s="50"/>
       <c r="D322" s="44"/>
       <c r="E322" s="44"/>
       <c r="F322" s="44"/>
       <c r="G322" s="44"/>
       <c r="H322" s="4"/>
       <c r="I322" s="44"/>
-      <c r="J322" s="53"/>
+      <c r="J322" s="50"/>
       <c r="K322" s="44"/>
-      <c r="L322" s="56"/>
-      <c r="M322" s="50"/>
+      <c r="L322" s="59"/>
+      <c r="M322" s="47"/>
       <c r="N322" s="44"/>
       <c r="O322" s="44"/>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="44"/>
-      <c r="B323" s="50"/>
-      <c r="C323" s="53"/>
+      <c r="B323" s="47"/>
+      <c r="C323" s="50"/>
       <c r="D323" s="44"/>
       <c r="E323" s="44"/>
       <c r="F323" s="44"/>
       <c r="G323" s="44"/>
       <c r="H323" s="4"/>
       <c r="I323" s="44"/>
-      <c r="J323" s="53"/>
+      <c r="J323" s="50"/>
       <c r="K323" s="44"/>
-      <c r="L323" s="56"/>
-      <c r="M323" s="50"/>
+      <c r="L323" s="59"/>
+      <c r="M323" s="47"/>
       <c r="N323" s="44"/>
       <c r="O323" s="44"/>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="44"/>
-      <c r="B324" s="50"/>
-      <c r="C324" s="53"/>
+      <c r="B324" s="47"/>
+      <c r="C324" s="50"/>
       <c r="D324" s="44"/>
       <c r="E324" s="44"/>
       <c r="F324" s="44"/>
       <c r="G324" s="44"/>
       <c r="H324" s="4"/>
       <c r="I324" s="44"/>
-      <c r="J324" s="53"/>
+      <c r="J324" s="50"/>
       <c r="K324" s="44"/>
-      <c r="L324" s="56"/>
-      <c r="M324" s="50"/>
+      <c r="L324" s="59"/>
+      <c r="M324" s="47"/>
       <c r="N324" s="44"/>
       <c r="O324" s="44"/>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="44"/>
-      <c r="B325" s="50"/>
-      <c r="C325" s="53"/>
+      <c r="B325" s="47"/>
+      <c r="C325" s="50"/>
       <c r="D325" s="44"/>
       <c r="E325" s="44"/>
       <c r="F325" s="44"/>
       <c r="G325" s="44"/>
       <c r="H325" s="4"/>
       <c r="I325" s="44"/>
-      <c r="J325" s="53"/>
+      <c r="J325" s="50"/>
       <c r="K325" s="44"/>
-      <c r="L325" s="56"/>
-      <c r="M325" s="50"/>
+      <c r="L325" s="59"/>
+      <c r="M325" s="47"/>
       <c r="N325" s="44"/>
       <c r="O325" s="44"/>
     </row>
     <row r="326" spans="1:15" ht="15" thickBot="1">
       <c r="A326" s="45"/>
-      <c r="B326" s="51"/>
-      <c r="C326" s="54"/>
+      <c r="B326" s="48"/>
+      <c r="C326" s="51"/>
       <c r="D326" s="45"/>
       <c r="E326" s="45"/>
       <c r="F326" s="45"/>
       <c r="G326" s="45"/>
       <c r="H326" s="5"/>
       <c r="I326" s="45"/>
-      <c r="J326" s="54"/>
+      <c r="J326" s="51"/>
       <c r="K326" s="45"/>
-      <c r="L326" s="57"/>
-      <c r="M326" s="51"/>
+      <c r="L326" s="60"/>
+      <c r="M326" s="48"/>
       <c r="N326" s="45"/>
       <c r="O326" s="45"/>
     </row>
@@ -12854,7 +12853,7 @@
       <c r="B327" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C327" s="52"/>
+      <c r="C327" s="49"/>
       <c r="D327" s="43"/>
       <c r="E327" s="43"/>
       <c r="F327" s="43"/>
@@ -12865,19 +12864,19 @@
       <c r="I327" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J327" s="52"/>
+      <c r="J327" s="49"/>
       <c r="K327" s="43"/>
       <c r="L327" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="M327" s="49"/>
-      <c r="N327" s="49"/>
+      <c r="M327" s="46"/>
+      <c r="N327" s="46"/>
       <c r="O327" s="43"/>
     </row>
     <row r="328" spans="1:15" ht="43.2">
       <c r="A328" s="44"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="53"/>
+      <c r="C328" s="50"/>
       <c r="D328" s="44"/>
       <c r="E328" s="44"/>
       <c r="F328" s="44"/>
@@ -12886,13 +12885,13 @@
         <v>268</v>
       </c>
       <c r="I328" s="44"/>
-      <c r="J328" s="53"/>
+      <c r="J328" s="50"/>
       <c r="K328" s="44"/>
       <c r="L328" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M328" s="50"/>
-      <c r="N328" s="50"/>
+      <c r="M328" s="47"/>
+      <c r="N328" s="47"/>
       <c r="O328" s="44"/>
     </row>
     <row r="329" spans="1:15" ht="72">
@@ -12900,7 +12899,7 @@
       <c r="B329" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C329" s="53"/>
+      <c r="C329" s="50"/>
       <c r="D329" s="44"/>
       <c r="E329" s="44"/>
       <c r="F329" s="44"/>
@@ -12909,30 +12908,30 @@
         <v>269</v>
       </c>
       <c r="I329" s="44"/>
-      <c r="J329" s="53"/>
+      <c r="J329" s="50"/>
       <c r="K329" s="44"/>
       <c r="L329" s="3"/>
-      <c r="M329" s="50"/>
-      <c r="N329" s="50"/>
+      <c r="M329" s="47"/>
+      <c r="N329" s="47"/>
       <c r="O329" s="44"/>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="44"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="53"/>
+      <c r="C330" s="50"/>
       <c r="D330" s="44"/>
       <c r="E330" s="44"/>
       <c r="F330" s="44"/>
       <c r="G330" s="44"/>
       <c r="H330" s="3"/>
       <c r="I330" s="44"/>
-      <c r="J330" s="53"/>
+      <c r="J330" s="50"/>
       <c r="K330" s="44"/>
       <c r="L330" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="M330" s="50"/>
-      <c r="N330" s="50"/>
+      <c r="M330" s="47"/>
+      <c r="N330" s="47"/>
       <c r="O330" s="44"/>
     </row>
     <row r="331" spans="1:15" ht="72">
@@ -12940,7 +12939,7 @@
       <c r="B331" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C331" s="53"/>
+      <c r="C331" s="50"/>
       <c r="D331" s="44"/>
       <c r="E331" s="44"/>
       <c r="F331" s="44"/>
@@ -12949,13 +12948,13 @@
         <v>270</v>
       </c>
       <c r="I331" s="44"/>
-      <c r="J331" s="53"/>
+      <c r="J331" s="50"/>
       <c r="K331" s="44"/>
       <c r="L331" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="M331" s="50"/>
-      <c r="N331" s="50"/>
+      <c r="M331" s="47"/>
+      <c r="N331" s="47"/>
       <c r="O331" s="44"/>
     </row>
     <row r="332" spans="1:15" ht="43.2">
@@ -12963,7 +12962,7 @@
       <c r="B332" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C332" s="53"/>
+      <c r="C332" s="50"/>
       <c r="D332" s="44"/>
       <c r="E332" s="44"/>
       <c r="F332" s="44"/>
@@ -12972,19 +12971,19 @@
         <v>271</v>
       </c>
       <c r="I332" s="44"/>
-      <c r="J332" s="53"/>
+      <c r="J332" s="50"/>
       <c r="K332" s="44"/>
       <c r="L332" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="M332" s="50"/>
-      <c r="N332" s="50"/>
+      <c r="M332" s="47"/>
+      <c r="N332" s="47"/>
       <c r="O332" s="44"/>
     </row>
     <row r="333" spans="1:15" ht="72">
       <c r="A333" s="44"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="53"/>
+      <c r="C333" s="50"/>
       <c r="D333" s="44"/>
       <c r="E333" s="44"/>
       <c r="F333" s="44"/>
@@ -12993,11 +12992,11 @@
         <v>272</v>
       </c>
       <c r="I333" s="44"/>
-      <c r="J333" s="53"/>
+      <c r="J333" s="50"/>
       <c r="K333" s="44"/>
       <c r="L333" s="3"/>
-      <c r="M333" s="50"/>
-      <c r="N333" s="50"/>
+      <c r="M333" s="47"/>
+      <c r="N333" s="47"/>
       <c r="O333" s="44"/>
     </row>
     <row r="334" spans="1:15">
@@ -13005,7 +13004,7 @@
       <c r="B334" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C334" s="53"/>
+      <c r="C334" s="50"/>
       <c r="D334" s="44"/>
       <c r="E334" s="44"/>
       <c r="F334" s="44"/>
@@ -13014,13 +13013,13 @@
         <v>273</v>
       </c>
       <c r="I334" s="44"/>
-      <c r="J334" s="53"/>
+      <c r="J334" s="50"/>
       <c r="K334" s="44"/>
       <c r="L334" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="M334" s="50"/>
-      <c r="N334" s="50"/>
+      <c r="M334" s="47"/>
+      <c r="N334" s="47"/>
       <c r="O334" s="44"/>
     </row>
     <row r="335" spans="1:15" ht="115.2">
@@ -13028,20 +13027,20 @@
       <c r="B335" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C335" s="53"/>
+      <c r="C335" s="50"/>
       <c r="D335" s="44"/>
       <c r="E335" s="44"/>
       <c r="F335" s="44"/>
       <c r="G335" s="44"/>
       <c r="H335" s="3"/>
       <c r="I335" s="44"/>
-      <c r="J335" s="53"/>
+      <c r="J335" s="50"/>
       <c r="K335" s="44"/>
       <c r="L335" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="M335" s="50"/>
-      <c r="N335" s="50"/>
+      <c r="M335" s="47"/>
+      <c r="N335" s="47"/>
       <c r="O335" s="44"/>
     </row>
     <row r="336" spans="1:15" ht="86.4">
@@ -13049,7 +13048,7 @@
       <c r="B336" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C336" s="53"/>
+      <c r="C336" s="50"/>
       <c r="D336" s="44"/>
       <c r="E336" s="44"/>
       <c r="F336" s="44"/>
@@ -13058,32 +13057,32 @@
         <v>274</v>
       </c>
       <c r="I336" s="44"/>
-      <c r="J336" s="53"/>
+      <c r="J336" s="50"/>
       <c r="K336" s="44"/>
       <c r="L336" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="M336" s="50"/>
-      <c r="N336" s="50"/>
+      <c r="M336" s="47"/>
+      <c r="N336" s="47"/>
       <c r="O336" s="44"/>
     </row>
     <row r="337" spans="1:15">
       <c r="A337" s="44"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="53"/>
+      <c r="C337" s="50"/>
       <c r="D337" s="44"/>
       <c r="E337" s="44"/>
       <c r="F337" s="44"/>
       <c r="G337" s="44"/>
       <c r="H337" s="4"/>
       <c r="I337" s="44"/>
-      <c r="J337" s="53"/>
+      <c r="J337" s="50"/>
       <c r="K337" s="44"/>
       <c r="L337" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M337" s="50"/>
-      <c r="N337" s="50"/>
+      <c r="M337" s="47"/>
+      <c r="N337" s="47"/>
       <c r="O337" s="44"/>
     </row>
     <row r="338" spans="1:15">
@@ -13091,20 +13090,20 @@
       <c r="B338" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C338" s="53"/>
+      <c r="C338" s="50"/>
       <c r="D338" s="44"/>
       <c r="E338" s="44"/>
       <c r="F338" s="44"/>
       <c r="G338" s="44"/>
       <c r="H338" s="4"/>
       <c r="I338" s="44"/>
-      <c r="J338" s="53"/>
+      <c r="J338" s="50"/>
       <c r="K338" s="44"/>
       <c r="L338" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M338" s="50"/>
-      <c r="N338" s="50"/>
+      <c r="M338" s="47"/>
+      <c r="N338" s="47"/>
       <c r="O338" s="44"/>
     </row>
     <row r="339" spans="1:15">
@@ -13112,20 +13111,20 @@
       <c r="B339" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C339" s="53"/>
+      <c r="C339" s="50"/>
       <c r="D339" s="44"/>
       <c r="E339" s="44"/>
       <c r="F339" s="44"/>
       <c r="G339" s="44"/>
       <c r="H339" s="4"/>
       <c r="I339" s="44"/>
-      <c r="J339" s="53"/>
+      <c r="J339" s="50"/>
       <c r="K339" s="44"/>
       <c r="L339" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M339" s="50"/>
-      <c r="N339" s="50"/>
+      <c r="M339" s="47"/>
+      <c r="N339" s="47"/>
       <c r="O339" s="44"/>
     </row>
     <row r="340" spans="1:15">
@@ -13133,20 +13132,20 @@
       <c r="B340" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C340" s="53"/>
+      <c r="C340" s="50"/>
       <c r="D340" s="44"/>
       <c r="E340" s="44"/>
       <c r="F340" s="44"/>
       <c r="G340" s="44"/>
       <c r="H340" s="4"/>
       <c r="I340" s="44"/>
-      <c r="J340" s="53"/>
+      <c r="J340" s="50"/>
       <c r="K340" s="44"/>
       <c r="L340" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="M340" s="50"/>
-      <c r="N340" s="50"/>
+      <c r="M340" s="47"/>
+      <c r="N340" s="47"/>
       <c r="O340" s="44"/>
     </row>
     <row r="341" spans="1:15" ht="43.2">
@@ -13154,111 +13153,111 @@
       <c r="B341" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C341" s="53"/>
+      <c r="C341" s="50"/>
       <c r="D341" s="44"/>
       <c r="E341" s="44"/>
       <c r="F341" s="44"/>
       <c r="G341" s="44"/>
       <c r="H341" s="4"/>
       <c r="I341" s="44"/>
-      <c r="J341" s="53"/>
+      <c r="J341" s="50"/>
       <c r="K341" s="44"/>
       <c r="L341" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M341" s="50"/>
-      <c r="N341" s="50"/>
+      <c r="M341" s="47"/>
+      <c r="N341" s="47"/>
       <c r="O341" s="44"/>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="44"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="53"/>
+      <c r="C342" s="50"/>
       <c r="D342" s="44"/>
       <c r="E342" s="44"/>
       <c r="F342" s="44"/>
       <c r="G342" s="44"/>
       <c r="H342" s="4"/>
       <c r="I342" s="44"/>
-      <c r="J342" s="53"/>
+      <c r="J342" s="50"/>
       <c r="K342" s="44"/>
       <c r="L342" s="3"/>
-      <c r="M342" s="50"/>
-      <c r="N342" s="50"/>
+      <c r="M342" s="47"/>
+      <c r="N342" s="47"/>
       <c r="O342" s="44"/>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="44"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="53"/>
+      <c r="C343" s="50"/>
       <c r="D343" s="44"/>
       <c r="E343" s="44"/>
       <c r="F343" s="44"/>
       <c r="G343" s="44"/>
       <c r="H343" s="4"/>
       <c r="I343" s="44"/>
-      <c r="J343" s="53"/>
+      <c r="J343" s="50"/>
       <c r="K343" s="44"/>
       <c r="L343" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="M343" s="50"/>
-      <c r="N343" s="50"/>
+      <c r="M343" s="47"/>
+      <c r="N343" s="47"/>
       <c r="O343" s="44"/>
     </row>
     <row r="344" spans="1:15" ht="115.2">
       <c r="A344" s="44"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="53"/>
+      <c r="C344" s="50"/>
       <c r="D344" s="44"/>
       <c r="E344" s="44"/>
       <c r="F344" s="44"/>
       <c r="G344" s="44"/>
       <c r="H344" s="4"/>
       <c r="I344" s="44"/>
-      <c r="J344" s="53"/>
+      <c r="J344" s="50"/>
       <c r="K344" s="44"/>
       <c r="L344" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="M344" s="50"/>
-      <c r="N344" s="50"/>
+      <c r="M344" s="47"/>
+      <c r="N344" s="47"/>
       <c r="O344" s="44"/>
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="44"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="53"/>
+      <c r="C345" s="50"/>
       <c r="D345" s="44"/>
       <c r="E345" s="44"/>
       <c r="F345" s="44"/>
       <c r="G345" s="44"/>
       <c r="H345" s="4"/>
       <c r="I345" s="44"/>
-      <c r="J345" s="53"/>
+      <c r="J345" s="50"/>
       <c r="K345" s="44"/>
       <c r="L345" s="3"/>
-      <c r="M345" s="50"/>
-      <c r="N345" s="50"/>
+      <c r="M345" s="47"/>
+      <c r="N345" s="47"/>
       <c r="O345" s="44"/>
     </row>
     <row r="346" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A346" s="45"/>
       <c r="B346" s="5"/>
-      <c r="C346" s="54"/>
+      <c r="C346" s="51"/>
       <c r="D346" s="45"/>
       <c r="E346" s="45"/>
       <c r="F346" s="45"/>
       <c r="G346" s="45"/>
       <c r="H346" s="5"/>
       <c r="I346" s="45"/>
-      <c r="J346" s="54"/>
+      <c r="J346" s="51"/>
       <c r="K346" s="45"/>
       <c r="L346" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="M346" s="51"/>
-      <c r="N346" s="51"/>
+      <c r="M346" s="48"/>
+      <c r="N346" s="48"/>
       <c r="O346" s="45"/>
     </row>
     <row r="347" spans="1:15" ht="41.4">
@@ -13268,7 +13267,7 @@
       <c r="B347" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C347" s="52" t="s">
+      <c r="C347" s="49" t="s">
         <v>294</v>
       </c>
       <c r="D347" s="43"/>
@@ -13277,36 +13276,36 @@
       <c r="G347" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H347" s="70" t="s">
+      <c r="H347" s="55" t="s">
         <v>297</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J347" s="52"/>
+      <c r="J347" s="49"/>
       <c r="K347" s="43"/>
-      <c r="L347" s="67" t="s">
+      <c r="L347" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="M347" s="49"/>
-      <c r="N347" s="49"/>
+      <c r="M347" s="46"/>
+      <c r="N347" s="46"/>
       <c r="O347" s="43"/>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="44"/>
       <c r="B348" s="27"/>
-      <c r="C348" s="53"/>
+      <c r="C348" s="50"/>
       <c r="D348" s="44"/>
       <c r="E348" s="44"/>
       <c r="F348" s="44"/>
       <c r="G348" s="3"/>
-      <c r="H348" s="71"/>
+      <c r="H348" s="56"/>
       <c r="I348" s="3"/>
-      <c r="J348" s="53"/>
+      <c r="J348" s="50"/>
       <c r="K348" s="44"/>
-      <c r="L348" s="68"/>
-      <c r="M348" s="50"/>
-      <c r="N348" s="50"/>
+      <c r="L348" s="53"/>
+      <c r="M348" s="47"/>
+      <c r="N348" s="47"/>
       <c r="O348" s="44"/>
     </row>
     <row r="349" spans="1:15">
@@ -13314,39 +13313,39 @@
       <c r="B349" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="C349" s="53"/>
+      <c r="C349" s="50"/>
       <c r="D349" s="44"/>
       <c r="E349" s="44"/>
       <c r="F349" s="44"/>
       <c r="G349" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H349" s="71"/>
+      <c r="H349" s="56"/>
       <c r="I349" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J349" s="53"/>
+      <c r="J349" s="50"/>
       <c r="K349" s="44"/>
-      <c r="L349" s="68"/>
-      <c r="M349" s="50"/>
-      <c r="N349" s="50"/>
+      <c r="L349" s="53"/>
+      <c r="M349" s="47"/>
+      <c r="N349" s="47"/>
       <c r="O349" s="44"/>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="44"/>
       <c r="B350" s="27"/>
-      <c r="C350" s="53"/>
+      <c r="C350" s="50"/>
       <c r="D350" s="44"/>
       <c r="E350" s="44"/>
       <c r="F350" s="44"/>
       <c r="G350" s="3"/>
-      <c r="H350" s="71"/>
+      <c r="H350" s="56"/>
       <c r="I350" s="3"/>
-      <c r="J350" s="53"/>
+      <c r="J350" s="50"/>
       <c r="K350" s="44"/>
-      <c r="L350" s="68"/>
-      <c r="M350" s="50"/>
-      <c r="N350" s="50"/>
+      <c r="L350" s="53"/>
+      <c r="M350" s="47"/>
+      <c r="N350" s="47"/>
       <c r="O350" s="44"/>
     </row>
     <row r="351" spans="1:15" ht="75.599999999999994">
@@ -13354,380 +13353,336 @@
       <c r="B351" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C351" s="53"/>
+      <c r="C351" s="50"/>
       <c r="D351" s="44"/>
       <c r="E351" s="44"/>
       <c r="F351" s="44"/>
       <c r="G351" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H351" s="71"/>
+      <c r="H351" s="56"/>
       <c r="I351" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="J351" s="53"/>
+      <c r="J351" s="50"/>
       <c r="K351" s="44"/>
-      <c r="L351" s="68"/>
-      <c r="M351" s="50"/>
-      <c r="N351" s="50"/>
+      <c r="L351" s="53"/>
+      <c r="M351" s="47"/>
+      <c r="N351" s="47"/>
       <c r="O351" s="44"/>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="44"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="53"/>
+      <c r="C352" s="50"/>
       <c r="D352" s="44"/>
       <c r="E352" s="44"/>
       <c r="F352" s="44"/>
       <c r="G352" s="3"/>
-      <c r="H352" s="71"/>
+      <c r="H352" s="56"/>
       <c r="I352" s="34"/>
-      <c r="J352" s="53"/>
+      <c r="J352" s="50"/>
       <c r="K352" s="44"/>
-      <c r="L352" s="68"/>
-      <c r="M352" s="50"/>
-      <c r="N352" s="50"/>
+      <c r="L352" s="53"/>
+      <c r="M352" s="47"/>
+      <c r="N352" s="47"/>
       <c r="O352" s="44"/>
     </row>
     <row r="353" spans="1:15" ht="113.4">
       <c r="A353" s="44"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="53"/>
+      <c r="C353" s="50"/>
       <c r="D353" s="44"/>
       <c r="E353" s="44"/>
       <c r="F353" s="44"/>
       <c r="G353" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H353" s="71"/>
+      <c r="H353" s="56"/>
       <c r="I353" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="J353" s="53"/>
+      <c r="J353" s="50"/>
       <c r="K353" s="44"/>
-      <c r="L353" s="68"/>
-      <c r="M353" s="50"/>
-      <c r="N353" s="50"/>
+      <c r="L353" s="53"/>
+      <c r="M353" s="47"/>
+      <c r="N353" s="47"/>
       <c r="O353" s="44"/>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="44"/>
       <c r="B354" s="4"/>
-      <c r="C354" s="53"/>
+      <c r="C354" s="50"/>
       <c r="D354" s="44"/>
       <c r="E354" s="44"/>
       <c r="F354" s="44"/>
       <c r="G354" s="4"/>
-      <c r="H354" s="71"/>
+      <c r="H354" s="56"/>
       <c r="I354" s="34"/>
-      <c r="J354" s="53"/>
+      <c r="J354" s="50"/>
       <c r="K354" s="44"/>
-      <c r="L354" s="68"/>
-      <c r="M354" s="50"/>
-      <c r="N354" s="50"/>
+      <c r="L354" s="53"/>
+      <c r="M354" s="47"/>
+      <c r="N354" s="47"/>
       <c r="O354" s="44"/>
     </row>
     <row r="355" spans="1:15" ht="113.4">
       <c r="A355" s="44"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="53"/>
+      <c r="C355" s="50"/>
       <c r="D355" s="44"/>
       <c r="E355" s="44"/>
       <c r="F355" s="44"/>
       <c r="G355" s="4"/>
-      <c r="H355" s="71"/>
+      <c r="H355" s="56"/>
       <c r="I355" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="J355" s="53"/>
+      <c r="J355" s="50"/>
       <c r="K355" s="44"/>
-      <c r="L355" s="68"/>
-      <c r="M355" s="50"/>
-      <c r="N355" s="50"/>
+      <c r="L355" s="53"/>
+      <c r="M355" s="47"/>
+      <c r="N355" s="47"/>
       <c r="O355" s="44"/>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="44"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="53"/>
+      <c r="C356" s="50"/>
       <c r="D356" s="44"/>
       <c r="E356" s="44"/>
       <c r="F356" s="44"/>
       <c r="G356" s="4"/>
-      <c r="H356" s="71"/>
+      <c r="H356" s="56"/>
       <c r="I356" s="34"/>
-      <c r="J356" s="53"/>
+      <c r="J356" s="50"/>
       <c r="K356" s="44"/>
-      <c r="L356" s="68"/>
-      <c r="M356" s="50"/>
-      <c r="N356" s="50"/>
+      <c r="L356" s="53"/>
+      <c r="M356" s="47"/>
+      <c r="N356" s="47"/>
       <c r="O356" s="44"/>
     </row>
     <row r="357" spans="1:15" ht="138.6">
       <c r="A357" s="44"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="53"/>
+      <c r="C357" s="50"/>
       <c r="D357" s="44"/>
       <c r="E357" s="44"/>
       <c r="F357" s="44"/>
       <c r="G357" s="4"/>
-      <c r="H357" s="71"/>
+      <c r="H357" s="56"/>
       <c r="I357" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="J357" s="53"/>
+      <c r="J357" s="50"/>
       <c r="K357" s="44"/>
-      <c r="L357" s="68"/>
-      <c r="M357" s="50"/>
-      <c r="N357" s="50"/>
+      <c r="L357" s="53"/>
+      <c r="M357" s="47"/>
+      <c r="N357" s="47"/>
       <c r="O357" s="44"/>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="44"/>
       <c r="B358" s="4"/>
-      <c r="C358" s="53"/>
+      <c r="C358" s="50"/>
       <c r="D358" s="44"/>
       <c r="E358" s="44"/>
       <c r="F358" s="44"/>
       <c r="G358" s="4"/>
-      <c r="H358" s="71"/>
+      <c r="H358" s="56"/>
       <c r="I358" s="3"/>
-      <c r="J358" s="53"/>
+      <c r="J358" s="50"/>
       <c r="K358" s="44"/>
-      <c r="L358" s="68"/>
-      <c r="M358" s="50"/>
-      <c r="N358" s="50"/>
+      <c r="L358" s="53"/>
+      <c r="M358" s="47"/>
+      <c r="N358" s="47"/>
       <c r="O358" s="44"/>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="44"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="53"/>
+      <c r="C359" s="50"/>
       <c r="D359" s="44"/>
       <c r="E359" s="44"/>
       <c r="F359" s="44"/>
       <c r="G359" s="4"/>
-      <c r="H359" s="71"/>
+      <c r="H359" s="56"/>
       <c r="I359" s="4"/>
-      <c r="J359" s="53"/>
+      <c r="J359" s="50"/>
       <c r="K359" s="44"/>
-      <c r="L359" s="68"/>
-      <c r="M359" s="50"/>
-      <c r="N359" s="50"/>
+      <c r="L359" s="53"/>
+      <c r="M359" s="47"/>
+      <c r="N359" s="47"/>
       <c r="O359" s="44"/>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="44"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="53"/>
+      <c r="C360" s="50"/>
       <c r="D360" s="44"/>
       <c r="E360" s="44"/>
       <c r="F360" s="44"/>
       <c r="G360" s="4"/>
-      <c r="H360" s="71"/>
+      <c r="H360" s="56"/>
       <c r="I360" s="4"/>
-      <c r="J360" s="53"/>
+      <c r="J360" s="50"/>
       <c r="K360" s="44"/>
-      <c r="L360" s="68"/>
-      <c r="M360" s="50"/>
-      <c r="N360" s="50"/>
+      <c r="L360" s="53"/>
+      <c r="M360" s="47"/>
+      <c r="N360" s="47"/>
       <c r="O360" s="44"/>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="44"/>
       <c r="B361" s="4"/>
-      <c r="C361" s="53"/>
+      <c r="C361" s="50"/>
       <c r="D361" s="44"/>
       <c r="E361" s="44"/>
       <c r="F361" s="44"/>
       <c r="G361" s="4"/>
-      <c r="H361" s="71"/>
+      <c r="H361" s="56"/>
       <c r="I361" s="4"/>
-      <c r="J361" s="53"/>
+      <c r="J361" s="50"/>
       <c r="K361" s="44"/>
-      <c r="L361" s="68"/>
-      <c r="M361" s="50"/>
-      <c r="N361" s="50"/>
+      <c r="L361" s="53"/>
+      <c r="M361" s="47"/>
+      <c r="N361" s="47"/>
       <c r="O361" s="44"/>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="44"/>
       <c r="B362" s="4"/>
-      <c r="C362" s="53"/>
+      <c r="C362" s="50"/>
       <c r="D362" s="44"/>
       <c r="E362" s="44"/>
       <c r="F362" s="44"/>
       <c r="G362" s="4"/>
-      <c r="H362" s="71"/>
+      <c r="H362" s="56"/>
       <c r="I362" s="4"/>
-      <c r="J362" s="53"/>
+      <c r="J362" s="50"/>
       <c r="K362" s="44"/>
-      <c r="L362" s="68"/>
-      <c r="M362" s="50"/>
-      <c r="N362" s="50"/>
+      <c r="L362" s="53"/>
+      <c r="M362" s="47"/>
+      <c r="N362" s="47"/>
       <c r="O362" s="44"/>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="44"/>
       <c r="B363" s="4"/>
-      <c r="C363" s="53"/>
+      <c r="C363" s="50"/>
       <c r="D363" s="44"/>
       <c r="E363" s="44"/>
       <c r="F363" s="44"/>
       <c r="G363" s="4"/>
-      <c r="H363" s="71"/>
+      <c r="H363" s="56"/>
       <c r="I363" s="4"/>
-      <c r="J363" s="53"/>
+      <c r="J363" s="50"/>
       <c r="K363" s="44"/>
-      <c r="L363" s="68"/>
-      <c r="M363" s="50"/>
-      <c r="N363" s="50"/>
+      <c r="L363" s="53"/>
+      <c r="M363" s="47"/>
+      <c r="N363" s="47"/>
       <c r="O363" s="44"/>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="44"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="53"/>
+      <c r="C364" s="50"/>
       <c r="D364" s="44"/>
       <c r="E364" s="44"/>
       <c r="F364" s="44"/>
       <c r="G364" s="4"/>
-      <c r="H364" s="71"/>
+      <c r="H364" s="56"/>
       <c r="I364" s="4"/>
-      <c r="J364" s="53"/>
+      <c r="J364" s="50"/>
       <c r="K364" s="44"/>
-      <c r="L364" s="68"/>
-      <c r="M364" s="50"/>
-      <c r="N364" s="50"/>
+      <c r="L364" s="53"/>
+      <c r="M364" s="47"/>
+      <c r="N364" s="47"/>
       <c r="O364" s="44"/>
     </row>
     <row r="365" spans="1:15">
       <c r="A365" s="44"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="53"/>
+      <c r="C365" s="50"/>
       <c r="D365" s="44"/>
       <c r="E365" s="44"/>
       <c r="F365" s="44"/>
       <c r="G365" s="4"/>
-      <c r="H365" s="71"/>
+      <c r="H365" s="56"/>
       <c r="I365" s="4"/>
-      <c r="J365" s="53"/>
+      <c r="J365" s="50"/>
       <c r="K365" s="44"/>
-      <c r="L365" s="68"/>
-      <c r="M365" s="50"/>
-      <c r="N365" s="50"/>
+      <c r="L365" s="53"/>
+      <c r="M365" s="47"/>
+      <c r="N365" s="47"/>
       <c r="O365" s="44"/>
     </row>
     <row r="366" spans="1:15" ht="15" thickBot="1">
       <c r="A366" s="45"/>
       <c r="B366" s="5"/>
-      <c r="C366" s="54"/>
+      <c r="C366" s="51"/>
       <c r="D366" s="45"/>
       <c r="E366" s="45"/>
       <c r="F366" s="45"/>
       <c r="G366" s="5"/>
-      <c r="H366" s="72"/>
+      <c r="H366" s="57"/>
       <c r="I366" s="5"/>
-      <c r="J366" s="54"/>
+      <c r="J366" s="51"/>
       <c r="K366" s="45"/>
-      <c r="L366" s="69"/>
-      <c r="M366" s="51"/>
-      <c r="N366" s="51"/>
+      <c r="L366" s="54"/>
+      <c r="M366" s="48"/>
+      <c r="N366" s="48"/>
       <c r="O366" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="K327:K346"/>
-    <mergeCell ref="M327:M346"/>
-    <mergeCell ref="J347:J366"/>
-    <mergeCell ref="K347:K366"/>
-    <mergeCell ref="L347:L366"/>
-    <mergeCell ref="M347:M366"/>
-    <mergeCell ref="N347:N366"/>
-    <mergeCell ref="O347:O366"/>
-    <mergeCell ref="A347:A366"/>
-    <mergeCell ref="C347:C366"/>
-    <mergeCell ref="D347:D366"/>
-    <mergeCell ref="E347:E366"/>
-    <mergeCell ref="F347:F366"/>
-    <mergeCell ref="H347:H366"/>
-    <mergeCell ref="G308:G326"/>
-    <mergeCell ref="I308:I326"/>
-    <mergeCell ref="J308:J326"/>
-    <mergeCell ref="K308:K326"/>
-    <mergeCell ref="L308:L326"/>
-    <mergeCell ref="M308:M326"/>
-    <mergeCell ref="A308:A326"/>
-    <mergeCell ref="B308:B326"/>
-    <mergeCell ref="C308:C326"/>
-    <mergeCell ref="D308:D326"/>
-    <mergeCell ref="E308:E326"/>
-    <mergeCell ref="F308:F326"/>
-    <mergeCell ref="O170:O192"/>
-    <mergeCell ref="A193:A285"/>
-    <mergeCell ref="B193:B285"/>
-    <mergeCell ref="C193:C285"/>
-    <mergeCell ref="D193:D285"/>
-    <mergeCell ref="E193:E285"/>
-    <mergeCell ref="F193:F285"/>
-    <mergeCell ref="G193:G285"/>
-    <mergeCell ref="J193:J285"/>
-    <mergeCell ref="K193:K285"/>
-    <mergeCell ref="L193:L285"/>
-    <mergeCell ref="O193:O285"/>
-    <mergeCell ref="H149:H169"/>
-    <mergeCell ref="J149:J169"/>
-    <mergeCell ref="M149:M169"/>
-    <mergeCell ref="N149:N169"/>
-    <mergeCell ref="A170:A192"/>
-    <mergeCell ref="B170:B192"/>
-    <mergeCell ref="C170:C192"/>
-    <mergeCell ref="D170:D192"/>
-    <mergeCell ref="E170:E192"/>
-    <mergeCell ref="F170:F192"/>
-    <mergeCell ref="A149:A169"/>
-    <mergeCell ref="C149:C169"/>
-    <mergeCell ref="D149:D169"/>
-    <mergeCell ref="E149:E169"/>
-    <mergeCell ref="F149:F169"/>
-    <mergeCell ref="G149:G169"/>
-    <mergeCell ref="H170:H192"/>
-    <mergeCell ref="J170:J192"/>
-    <mergeCell ref="K170:K192"/>
-    <mergeCell ref="L170:L192"/>
-    <mergeCell ref="H124:H148"/>
-    <mergeCell ref="J124:J148"/>
-    <mergeCell ref="L124:L148"/>
-    <mergeCell ref="M124:M148"/>
-    <mergeCell ref="N124:N148"/>
-    <mergeCell ref="O124:O148"/>
-    <mergeCell ref="A124:A148"/>
-    <mergeCell ref="B124:B148"/>
-    <mergeCell ref="C124:C148"/>
-    <mergeCell ref="D124:D148"/>
-    <mergeCell ref="E124:E148"/>
-    <mergeCell ref="F124:F148"/>
-    <mergeCell ref="O71:O97"/>
-    <mergeCell ref="A98:A123"/>
-    <mergeCell ref="C98:C123"/>
-    <mergeCell ref="D98:D123"/>
-    <mergeCell ref="E98:E123"/>
-    <mergeCell ref="F98:F123"/>
-    <mergeCell ref="G98:G123"/>
-    <mergeCell ref="H98:H123"/>
-    <mergeCell ref="N98:N123"/>
-    <mergeCell ref="H71:H97"/>
-    <mergeCell ref="J71:J97"/>
-    <mergeCell ref="K71:K97"/>
-    <mergeCell ref="L71:L97"/>
-    <mergeCell ref="M71:M97"/>
-    <mergeCell ref="N71:N97"/>
-    <mergeCell ref="A71:A97"/>
-    <mergeCell ref="C71:C97"/>
-    <mergeCell ref="D71:D97"/>
-    <mergeCell ref="E71:E97"/>
-    <mergeCell ref="F71:F97"/>
-    <mergeCell ref="G71:G97"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="L46:L57"/>
+    <mergeCell ref="M46:M57"/>
+    <mergeCell ref="N46:N57"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="O286:O307"/>
+    <mergeCell ref="E286:E307"/>
+    <mergeCell ref="F286:F307"/>
+    <mergeCell ref="N308:N326"/>
+    <mergeCell ref="O308:O326"/>
+    <mergeCell ref="A327:A346"/>
+    <mergeCell ref="C327:C346"/>
+    <mergeCell ref="D327:D346"/>
+    <mergeCell ref="E327:E346"/>
+    <mergeCell ref="F327:F346"/>
+    <mergeCell ref="G327:G346"/>
+    <mergeCell ref="I327:I346"/>
+    <mergeCell ref="J327:J346"/>
+    <mergeCell ref="G286:G307"/>
+    <mergeCell ref="J286:J307"/>
+    <mergeCell ref="K286:K307"/>
+    <mergeCell ref="L286:L307"/>
+    <mergeCell ref="A286:A307"/>
+    <mergeCell ref="B286:B307"/>
+    <mergeCell ref="C286:C307"/>
+    <mergeCell ref="D286:D307"/>
+    <mergeCell ref="N286:N307"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="M13:M19"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="L3:L12"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
     <mergeCell ref="O46:O57"/>
     <mergeCell ref="A58:A70"/>
     <mergeCell ref="C58:C70"/>
@@ -13752,55 +13707,99 @@
     <mergeCell ref="E20:E45"/>
     <mergeCell ref="F20:F45"/>
     <mergeCell ref="G20:G45"/>
-    <mergeCell ref="O3:O12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="M13:M19"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="L3:L12"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O71:O97"/>
+    <mergeCell ref="A98:A123"/>
+    <mergeCell ref="C98:C123"/>
+    <mergeCell ref="D98:D123"/>
+    <mergeCell ref="E98:E123"/>
+    <mergeCell ref="F98:F123"/>
+    <mergeCell ref="G98:G123"/>
+    <mergeCell ref="H98:H123"/>
+    <mergeCell ref="N98:N123"/>
+    <mergeCell ref="H71:H97"/>
+    <mergeCell ref="J71:J97"/>
+    <mergeCell ref="K71:K97"/>
+    <mergeCell ref="L71:L97"/>
+    <mergeCell ref="M71:M97"/>
+    <mergeCell ref="N71:N97"/>
+    <mergeCell ref="A71:A97"/>
+    <mergeCell ref="C71:C97"/>
+    <mergeCell ref="D71:D97"/>
+    <mergeCell ref="E71:E97"/>
+    <mergeCell ref="F71:F97"/>
+    <mergeCell ref="G71:G97"/>
+    <mergeCell ref="H124:H148"/>
+    <mergeCell ref="J124:J148"/>
+    <mergeCell ref="L124:L148"/>
+    <mergeCell ref="M124:M148"/>
+    <mergeCell ref="N124:N148"/>
+    <mergeCell ref="O124:O148"/>
+    <mergeCell ref="A124:A148"/>
+    <mergeCell ref="B124:B148"/>
+    <mergeCell ref="C124:C148"/>
+    <mergeCell ref="D124:D148"/>
+    <mergeCell ref="E124:E148"/>
+    <mergeCell ref="F124:F148"/>
+    <mergeCell ref="H149:H169"/>
+    <mergeCell ref="J149:J169"/>
+    <mergeCell ref="M149:M169"/>
+    <mergeCell ref="N149:N169"/>
+    <mergeCell ref="A170:A192"/>
+    <mergeCell ref="B170:B192"/>
+    <mergeCell ref="C170:C192"/>
+    <mergeCell ref="D170:D192"/>
+    <mergeCell ref="E170:E192"/>
+    <mergeCell ref="F170:F192"/>
+    <mergeCell ref="A149:A169"/>
+    <mergeCell ref="C149:C169"/>
+    <mergeCell ref="D149:D169"/>
+    <mergeCell ref="E149:E169"/>
+    <mergeCell ref="F149:F169"/>
+    <mergeCell ref="G149:G169"/>
+    <mergeCell ref="H170:H192"/>
+    <mergeCell ref="J170:J192"/>
+    <mergeCell ref="K170:K192"/>
+    <mergeCell ref="L170:L192"/>
+    <mergeCell ref="O170:O192"/>
+    <mergeCell ref="A193:A285"/>
+    <mergeCell ref="B193:B285"/>
+    <mergeCell ref="C193:C285"/>
+    <mergeCell ref="D193:D285"/>
+    <mergeCell ref="E193:E285"/>
+    <mergeCell ref="F193:F285"/>
+    <mergeCell ref="G193:G285"/>
+    <mergeCell ref="J193:J285"/>
+    <mergeCell ref="K193:K285"/>
+    <mergeCell ref="L193:L285"/>
+    <mergeCell ref="O193:O285"/>
+    <mergeCell ref="G308:G326"/>
+    <mergeCell ref="I308:I326"/>
+    <mergeCell ref="J308:J326"/>
+    <mergeCell ref="K308:K326"/>
+    <mergeCell ref="L308:L326"/>
+    <mergeCell ref="M308:M326"/>
+    <mergeCell ref="A308:A326"/>
+    <mergeCell ref="B308:B326"/>
+    <mergeCell ref="C308:C326"/>
+    <mergeCell ref="D308:D326"/>
+    <mergeCell ref="E308:E326"/>
+    <mergeCell ref="F308:F326"/>
+    <mergeCell ref="K327:K346"/>
+    <mergeCell ref="M327:M346"/>
+    <mergeCell ref="J347:J366"/>
+    <mergeCell ref="K347:K366"/>
+    <mergeCell ref="L347:L366"/>
+    <mergeCell ref="M347:M366"/>
+    <mergeCell ref="N347:N366"/>
+    <mergeCell ref="O347:O366"/>
+    <mergeCell ref="A347:A366"/>
+    <mergeCell ref="C347:C366"/>
+    <mergeCell ref="D347:D366"/>
+    <mergeCell ref="E347:E366"/>
+    <mergeCell ref="F347:F366"/>
+    <mergeCell ref="H347:H366"/>
     <mergeCell ref="N327:N346"/>
     <mergeCell ref="O327:O346"/>
-    <mergeCell ref="G286:G307"/>
-    <mergeCell ref="J286:J307"/>
-    <mergeCell ref="K286:K307"/>
-    <mergeCell ref="L286:L307"/>
-    <mergeCell ref="A286:A307"/>
-    <mergeCell ref="B286:B307"/>
-    <mergeCell ref="C286:C307"/>
-    <mergeCell ref="D286:D307"/>
-    <mergeCell ref="N286:N307"/>
-    <mergeCell ref="O286:O307"/>
-    <mergeCell ref="E286:E307"/>
-    <mergeCell ref="F286:F307"/>
-    <mergeCell ref="N308:N326"/>
-    <mergeCell ref="O308:O326"/>
-    <mergeCell ref="A327:A346"/>
-    <mergeCell ref="C327:C346"/>
-    <mergeCell ref="D327:D346"/>
-    <mergeCell ref="E327:E346"/>
-    <mergeCell ref="F327:F346"/>
-    <mergeCell ref="G327:G346"/>
-    <mergeCell ref="I327:I346"/>
-    <mergeCell ref="J327:J346"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="L46:L57"/>
-    <mergeCell ref="M46:M57"/>
-    <mergeCell ref="N46:N57"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E3:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K58" r:id="rId1" display="https://www.physionet.org/content/mimicdb/1.0.0/" xr:uid="{6B0721C3-6DF3-428E-9BA6-BF896EFFB00C}"/>
@@ -14122,25 +14121,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:X17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="36" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="36" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="36"/>
     <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="36"/>
-    <col min="7" max="7" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="36" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="36"/>
-    <col min="9" max="9" width="16.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="36" customWidth="1"/>
     <col min="10" max="10" width="17.88671875" style="36" customWidth="1"/>
     <col min="11" max="11" width="21.109375" style="36" customWidth="1"/>
     <col min="12" max="13" width="22.6640625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="36" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="52.109375" style="36" customWidth="1"/>
     <col min="15" max="16" width="8.88671875" style="36"/>
     <col min="17" max="17" width="7.33203125" style="36" customWidth="1"/>
     <col min="18" max="18" width="17.5546875" style="36" customWidth="1"/>

--- a/Literature Survey.xlsx
+++ b/Literature Survey.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddbd6e683667f873/Documents/GitHub/FinalYearProject---BP-from-ECG-PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="797" documentId="8_{06F99736-31DA-49E8-9505-754BB59202F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3B9A07-1CFB-4245-B4D1-145E090B84BE}"/>
+  <xr:revisionPtr revIDLastSave="801" documentId="8_{06F99736-31DA-49E8-9505-754BB59202F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04639288-A090-4CBB-914C-B5CEFACBF484}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{06451764-CDC8-4287-8B2A-BBFCBF9ADF2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{06451764-CDC8-4287-8B2A-BBFCBF9ADF2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Final SP" sheetId="3" r:id="rId2"/>
-    <sheet name="Final ML" sheetId="2" r:id="rId3"/>
+    <sheet name="Final SP" sheetId="3" r:id="rId1"/>
+    <sheet name="Final ML" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -6777,6 +6777,1606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6187C3F4-7987-4C98-83E2-6AFE3FE8D248}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.109375" style="36" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="36"/>
+    <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="36"/>
+    <col min="8" max="8" width="16.88671875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="36" customWidth="1"/>
+    <col min="11" max="12" width="22.6640625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="52.109375" style="36" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="36"/>
+    <col min="16" max="16" width="7.33203125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" style="36" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" style="36" customWidth="1"/>
+    <col min="20" max="21" width="20.6640625" style="36" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="36" customWidth="1"/>
+    <col min="23" max="23" width="29.109375" style="36" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8940556/" xr:uid="{D8A23E42-1822-4D71-BEA3-67C16932B73E}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176730/" xr:uid="{2F6B961E-D67B-4BF1-B0FB-8FDE8B254AFD}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8857697/" xr:uid="{49E0626D-63D1-465E-BC06-4F89BA13031F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C704E-043C-4872-9E2C-2E060120A1EC}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="36"/>
+    <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="36"/>
+    <col min="7" max="7" width="8.88671875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="36"/>
+    <col min="9" max="9" width="16.88671875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="36" customWidth="1"/>
+    <col min="12" max="13" width="22.6640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="52.109375" style="36" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="36"/>
+    <col min="17" max="17" width="7.33203125" style="36" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" style="36" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" style="36" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" style="36" customWidth="1"/>
+    <col min="21" max="22" width="20.6640625" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" style="36" customWidth="1"/>
+    <col min="24" max="24" width="29.109375" style="36" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="S2" s="36">
+        <v>125</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="S3" s="36">
+        <v>125</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="36">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="36">
+        <v>219</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S4" s="36">
+        <v>125</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" s="36">
+        <v>8000</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="216" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1363</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S9" s="36">
+        <v>125</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2022</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S10" s="36">
+        <v>125</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="S11" s="36">
+        <v>125</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="36">
+        <v>33</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" s="36">
+        <v>216</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S15" s="36">
+        <v>125</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="36">
+        <v>78</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="36">
+        <v>604</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="S17" s="36">
+        <v>125</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="U17" s="36">
+        <v>10</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8404255/" xr:uid="{F871CB06-22B3-4CA9-9FFB-8675E1ABAC4B}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8719341/" xr:uid="{2C65D94A-5275-4756-B042-A44B8684A604}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9558767/" xr:uid="{83BD849B-82EC-43DE-9B7F-A62A5726FF99}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9374974/" xr:uid="{F8A83578-0599-4CB5-A684-456CF585052C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8512829/" xr:uid="{0AE29CAA-9036-4299-839C-7EE552F0E90E}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8567071/" xr:uid="{72C94ACA-B90F-4BCB-AD9B-C3150378D464}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8631690/" xr:uid="{AD5FBD14-E410-4B89-B98F-E9DC8330B879}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176849/" xr:uid="{E10B373A-C1AC-407C-A61B-A5A14682D1BD}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9616465/" xr:uid="{FCD6002F-E45B-442E-A628-B9C8C4ECBCC3}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/7491263/" xr:uid="{A21BCF7A-5C12-40FC-9C2E-AC52CED1D7B5}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176593/" xr:uid="{EE315293-8572-4C36-B799-10713CD7AE1D}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9152602/" xr:uid="{55E86E9A-BB43-44AB-9FB8-4E2A6063E64F}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9071281/" xr:uid="{9734C5DF-3F2C-491A-AEDC-609EE968AB8C}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9175699/" xr:uid="{38E25D53-F659-41CF-B6AF-E33807D169E5}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8856706/" xr:uid="{B325A8DF-1683-4DE4-A3F1-F737421A2122}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8857108/" xr:uid="{C18EEE51-1E52-4C9C-BB1D-DAB13E0B9EE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2EDD37-D976-4B2D-A309-1641D0EAFE66}">
   <dimension ref="A1:O366"/>
   <sheetViews>
@@ -13829,1610 +15429,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6187C3F4-7987-4C98-83E2-6AFE3FE8D248}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="14.109375" style="36" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="36"/>
-    <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="36"/>
-    <col min="8" max="8" width="16.88671875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="36" customWidth="1"/>
-    <col min="11" max="12" width="22.6640625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="52.109375" style="36" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="36"/>
-    <col min="16" max="16" width="7.33203125" style="36" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" style="36" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" style="36" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" style="36" customWidth="1"/>
-    <col min="20" max="21" width="20.6640625" style="36" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" style="36" customWidth="1"/>
-    <col min="23" max="23" width="29.109375" style="36" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="W1" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="36">
-        <v>2019</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="36">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="36">
-        <v>2019</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8940556/" xr:uid="{D8A23E42-1822-4D71-BEA3-67C16932B73E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176730/" xr:uid="{2F6B961E-D67B-4BF1-B0FB-8FDE8B254AFD}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8857697/" xr:uid="{49E0626D-63D1-465E-BC06-4F89BA13031F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C704E-043C-4872-9E2C-2E060120A1EC}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="36"/>
-    <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="36"/>
-    <col min="7" max="7" width="8.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="36"/>
-    <col min="9" max="9" width="16.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="22.6640625" style="36" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="36" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="36"/>
-    <col min="17" max="17" width="7.33203125" style="36" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="36" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" style="36" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" style="36" customWidth="1"/>
-    <col min="21" max="22" width="20.6640625" style="36" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" style="36" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.109375" style="36" hidden="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="W1" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="36">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="S2" s="36">
-        <v>125</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="36">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="S3" s="36">
-        <v>125</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J4" s="36">
-        <v>219</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S4" s="36">
-        <v>125</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="36">
-        <v>2021</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J5" s="36">
-        <v>8000</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="36">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="36">
-        <v>1363</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" s="36">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V7" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X7" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="D8" s="36">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="36">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S9" s="36">
-        <v>125</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="V9" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="W9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X9" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S10" s="36">
-        <v>125</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="X10" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="36">
-        <v>2017</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="S11" s="36">
-        <v>125</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="36">
-        <v>2020</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="36">
-        <v>33</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D13" s="36">
-        <v>2020</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J13" s="36">
-        <v>216</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="D14" s="36">
-        <v>2019</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V14" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X14" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="288" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" s="36">
-        <v>2020</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>496</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S15" s="36">
-        <v>125</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="X15" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="D16" s="36">
-        <v>2019</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="36">
-        <v>78</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="U16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="V16" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="W16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X16" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="D17" s="36">
-        <v>2019</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="J17" s="36">
-        <v>604</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="S17" s="36">
-        <v>125</v>
-      </c>
-      <c r="T17" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="U17" s="36">
-        <v>10</v>
-      </c>
-      <c r="V17" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="W17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8404255/" xr:uid="{F871CB06-22B3-4CA9-9FFB-8675E1ABAC4B}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8719341/" xr:uid="{2C65D94A-5275-4756-B042-A44B8684A604}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9558767/" xr:uid="{83BD849B-82EC-43DE-9B7F-A62A5726FF99}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9374974/" xr:uid="{F8A83578-0599-4CB5-A684-456CF585052C}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8512829/" xr:uid="{0AE29CAA-9036-4299-839C-7EE552F0E90E}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8567071/" xr:uid="{72C94ACA-B90F-4BCB-AD9B-C3150378D464}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8631690/" xr:uid="{AD5FBD14-E410-4B89-B98F-E9DC8330B879}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176849/" xr:uid="{E10B373A-C1AC-407C-A61B-A5A14682D1BD}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9616465/" xr:uid="{FCD6002F-E45B-442E-A628-B9C8C4ECBCC3}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/7491263/" xr:uid="{A21BCF7A-5C12-40FC-9C2E-AC52CED1D7B5}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9176593/" xr:uid="{EE315293-8572-4C36-B799-10713CD7AE1D}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9152602/" xr:uid="{55E86E9A-BB43-44AB-9FB8-4E2A6063E64F}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9071281/" xr:uid="{9734C5DF-3F2C-491A-AEDC-609EE968AB8C}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/9175699/" xr:uid="{38E25D53-F659-41CF-B6AF-E33807D169E5}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8856706/" xr:uid="{B325A8DF-1683-4DE4-A3F1-F737421A2122}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://ieeexplore-ieee-org.iclibezp1.cc.ic.ac.uk/document/8857108/" xr:uid="{C18EEE51-1E52-4C9C-BB1D-DAB13E0B9EE1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D151732B-F171-4871-ABE0-9DF083AA1B41}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
